--- a/input/Homologacion.xlsx
+++ b/input/Homologacion.xlsx
@@ -1958,24 +1958,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1983,31 +1983,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2015,55 +2015,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2079,11 +2079,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2131,15 +2131,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2171,19 +2171,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2215,19 +2215,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2251,15 +2251,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2287,27 +2287,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2315,39 +2315,39 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2375,151 +2375,155 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2602,12 +2606,12 @@
   </sheetPr>
   <dimension ref="A1:Z208"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E192" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A192" activeCellId="0" sqref="A192"/>
+      <selection pane="bottomRight" activeCell="A201" activeCellId="0" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2623,7 +2627,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="30.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="4" width="26.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="31.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="31.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="29.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="4" width="31.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="5" width="34.75"/>
@@ -17977,12 +17981,12 @@
   </sheetPr>
   <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E192" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A192" activeCellId="0" sqref="A192"/>
+      <selection pane="bottomRight" activeCell="D210" activeCellId="0" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17992,23 +17996,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="106" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="107" width="57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="107" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="108" width="20.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="108" t="s">
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="110" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
@@ -18019,11 +18023,11 @@
       <c r="I1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="109"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
@@ -18038,5302 +18042,5308 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119" t="n">
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120" t="n">
         <f aca="false">SUM(F5)</f>
         <v>825742008000</v>
       </c>
-      <c r="G4" s="119" t="n">
+      <c r="G4" s="120" t="n">
         <f aca="false">SUM(G5)</f>
         <v>4988871742.764</v>
       </c>
-      <c r="H4" s="119" t="n">
+      <c r="H4" s="120" t="n">
         <f aca="false">SUM(H5)</f>
         <v>301956264227.436</v>
       </c>
-      <c r="I4" s="119" t="n">
+      <c r="I4" s="120" t="n">
         <f aca="false">SUM(I5)</f>
         <v>1132687143970.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="122" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="123" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>412</v>
       </c>
       <c r="E5" s="89"/>
-      <c r="F5" s="114" t="n">
+      <c r="F5" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R5</f>
         <v>825742008000</v>
       </c>
-      <c r="G5" s="114" t="n">
+      <c r="G5" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S5</f>
         <v>4988871742.764</v>
       </c>
-      <c r="H5" s="114" t="n">
+      <c r="H5" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T5</f>
         <v>301956264227.436</v>
       </c>
-      <c r="I5" s="114" t="n">
+      <c r="I5" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U5</f>
         <v>1132687143970.2</v>
       </c>
     </row>
     <row r="6" s="104" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="119" t="n">
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="120" t="n">
         <f aca="false">SUM(F7:F12)</f>
         <v>2058191772000</v>
       </c>
-      <c r="G6" s="119" t="n">
+      <c r="G6" s="120" t="n">
         <f aca="false">SUM(G7:G12)</f>
         <v>7505016464.4</v>
       </c>
-      <c r="H6" s="119" t="n">
+      <c r="H6" s="120" t="n">
         <f aca="false">SUM(H7:H12)</f>
         <v>529054328994.828</v>
       </c>
-      <c r="I6" s="119" t="n">
+      <c r="I6" s="120" t="n">
         <f aca="false">SUM(I7:I12)</f>
         <v>2594751117459.23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="120"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="122" t="s">
+      <c r="A7" s="121"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="123" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>413</v>
       </c>
       <c r="E7" s="89"/>
-      <c r="F7" s="114" t="n">
+      <c r="F7" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R7</f>
         <v>782699736000</v>
       </c>
-      <c r="G7" s="114" t="n">
+      <c r="G7" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S7</f>
         <v>655194572.76</v>
       </c>
-      <c r="H7" s="114" t="n">
+      <c r="H7" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T7</f>
         <v>199616348355.06</v>
       </c>
-      <c r="I7" s="114" t="n">
+      <c r="I7" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U7</f>
         <v>982971278927.82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="120"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="122" t="s">
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="89"/>
-      <c r="F8" s="114" t="n">
+      <c r="F8" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R8</f>
         <v>38427480000</v>
       </c>
-      <c r="G8" s="114" t="n">
+      <c r="G8" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S8</f>
         <v>19134913.98</v>
       </c>
-      <c r="H8" s="114" t="n">
+      <c r="H8" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T8</f>
         <v>118775966400</v>
       </c>
-      <c r="I8" s="114" t="n">
+      <c r="I8" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U8</f>
         <v>157222581313.98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="120"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="122" t="s">
+      <c r="A9" s="121"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="89" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="89"/>
-      <c r="F9" s="114" t="n">
+      <c r="F9" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R9</f>
         <v>875265300000</v>
       </c>
-      <c r="G9" s="114" t="n">
+      <c r="G9" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S9</f>
         <v>6548991092.28</v>
       </c>
-      <c r="H9" s="114" t="n">
+      <c r="H9" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T9</f>
         <v>54823677039.768</v>
       </c>
-      <c r="I9" s="114" t="n">
+      <c r="I9" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U9</f>
         <v>936637968132.048</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122" t="s">
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="89" t="s">
         <v>414</v>
       </c>
       <c r="E10" s="89"/>
-      <c r="F10" s="114" t="n">
+      <c r="F10" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R10</f>
         <v>287270256000</v>
       </c>
-      <c r="G10" s="114" t="n">
+      <c r="G10" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S10</f>
         <v>180498532.032</v>
       </c>
-      <c r="H10" s="114" t="n">
+      <c r="H10" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T10</f>
         <v>2730000000</v>
       </c>
-      <c r="I10" s="114" t="n">
+      <c r="I10" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U10</f>
         <v>290180754532.032</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="120"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122" t="s">
+      <c r="A11" s="121"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="89" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="89"/>
-      <c r="F11" s="114" t="n">
+      <c r="F11" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R11</f>
         <v>7348068000</v>
       </c>
-      <c r="G11" s="114" t="n">
+      <c r="G11" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S11</f>
         <v>32356999.584</v>
       </c>
-      <c r="H11" s="114" t="n">
+      <c r="H11" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T11</f>
         <v>72072000000</v>
       </c>
-      <c r="I11" s="114" t="n">
+      <c r="I11" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U11</f>
         <v>79452424999.584</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="120"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="122" t="s">
+      <c r="A12" s="121"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="123" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="89" t="s">
         <v>415</v>
       </c>
       <c r="E12" s="89"/>
-      <c r="F12" s="114" t="n">
+      <c r="F12" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R12</f>
         <v>67180932000</v>
       </c>
-      <c r="G12" s="114" t="n">
+      <c r="G12" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S12</f>
         <v>68840353.764</v>
       </c>
-      <c r="H12" s="114" t="n">
+      <c r="H12" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T12</f>
         <v>81036337200</v>
       </c>
-      <c r="I12" s="114" t="n">
+      <c r="I12" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U12</f>
         <v>148286109553.764</v>
       </c>
     </row>
     <row r="13" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="119" t="n">
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="120" t="n">
         <f aca="false">SUM(F14:F16)</f>
         <v>595895363083.02</v>
       </c>
-      <c r="G13" s="119" t="n">
+      <c r="G13" s="120" t="n">
         <f aca="false">SUM(G14:G16)</f>
         <v>14382904692.156</v>
       </c>
-      <c r="H13" s="119" t="n">
+      <c r="H13" s="120" t="n">
         <f aca="false">SUM(H14:H16)</f>
         <v>1563961602399.92</v>
       </c>
-      <c r="I13" s="119" t="n">
+      <c r="I13" s="120" t="n">
         <f aca="false">SUM(I14:I16)</f>
         <v>2174239870175.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="120"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="122" t="s">
+      <c r="A14" s="121"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="89" t="s">
         <v>416</v>
       </c>
       <c r="E14" s="89"/>
-      <c r="F14" s="114" t="n">
+      <c r="F14" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R14</f>
         <v>122295128749.248</v>
       </c>
-      <c r="G14" s="114" t="n">
+      <c r="G14" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S14</f>
         <v>11615352135.66</v>
       </c>
-      <c r="H14" s="114" t="n">
+      <c r="H14" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T14</f>
         <v>1474838568399.92</v>
       </c>
-      <c r="I14" s="114" t="n">
+      <c r="I14" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U14</f>
         <v>1608749049284.83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="120"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122" t="s">
+      <c r="A15" s="121"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="89" t="s">
         <v>417</v>
       </c>
       <c r="E15" s="89"/>
-      <c r="F15" s="114" t="n">
+      <c r="F15" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R15</f>
         <v>23949119693.772</v>
       </c>
-      <c r="G15" s="114" t="n">
+      <c r="G15" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S15</f>
         <v>589870415.316</v>
       </c>
-      <c r="H15" s="114" t="n">
+      <c r="H15" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T15</f>
         <v>56369040000</v>
       </c>
-      <c r="I15" s="114" t="n">
+      <c r="I15" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U15</f>
         <v>80908030109.088</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="125"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="127" t="s">
+      <c r="A16" s="126"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="129" t="s">
         <v>418</v>
       </c>
-      <c r="E16" s="128"/>
-      <c r="F16" s="114" t="n">
+      <c r="E16" s="129"/>
+      <c r="F16" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R16</f>
         <v>449651114640</v>
       </c>
-      <c r="G16" s="114" t="n">
+      <c r="G16" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S16</f>
         <v>2177682141.18</v>
       </c>
-      <c r="H16" s="114" t="n">
+      <c r="H16" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T16</f>
         <v>32753994000</v>
       </c>
-      <c r="I16" s="114" t="n">
+      <c r="I16" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U16</f>
         <v>484582790781.18</v>
       </c>
     </row>
     <row r="17" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="122" t="s">
         <v>419</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="119" t="n">
+      <c r="C17" s="123"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="120" t="n">
         <f aca="false">SUM(F18:F20)</f>
         <v>235647048000</v>
       </c>
-      <c r="G17" s="119" t="n">
+      <c r="G17" s="120" t="n">
         <f aca="false">SUM(G18:G20)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="119" t="n">
+      <c r="H17" s="120" t="n">
         <f aca="false">SUM(H18:H20)</f>
         <v>875272553237.628</v>
       </c>
-      <c r="I17" s="119" t="n">
+      <c r="I17" s="120" t="n">
         <f aca="false">SUM(I18:I20)</f>
         <v>1110919601237.63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="120"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131" t="s">
+      <c r="A18" s="121"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="132" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="89" t="s">
         <v>420</v>
       </c>
       <c r="E18" s="89"/>
-      <c r="F18" s="114" t="n">
+      <c r="F18" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R18</f>
         <v>131967108000</v>
       </c>
-      <c r="G18" s="114" t="n">
+      <c r="G18" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="114" t="n">
+      <c r="H18" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T18</f>
         <v>273596797088.16</v>
       </c>
-      <c r="I18" s="114" t="n">
+      <c r="I18" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U18</f>
         <v>405563905088.16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="120"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131" t="s">
+      <c r="A19" s="121"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="89" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="89"/>
-      <c r="F19" s="114" t="n">
+      <c r="F19" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R19</f>
         <v>3182088000</v>
       </c>
-      <c r="G19" s="114" t="n">
+      <c r="G19" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="114" t="n">
+      <c r="H19" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T19</f>
         <v>26361972000</v>
       </c>
-      <c r="I19" s="114" t="n">
+      <c r="I19" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U19</f>
         <v>29544060000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="120"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="122" t="s">
+      <c r="A20" s="121"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="89" t="s">
         <v>421</v>
       </c>
       <c r="E20" s="89"/>
-      <c r="F20" s="114" t="n">
+      <c r="F20" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R20</f>
         <v>100497852000</v>
       </c>
-      <c r="G20" s="114" t="n">
+      <c r="G20" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="114" t="n">
+      <c r="H20" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T20</f>
         <v>575313784149.468</v>
       </c>
-      <c r="I20" s="114" t="n">
+      <c r="I20" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U20</f>
         <v>675811636149.468</v>
       </c>
     </row>
     <row r="21" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="117" t="s">
         <v>422</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="119" t="n">
+      <c r="C21" s="124"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="120" t="n">
         <f aca="false">SUM(F22:F24)</f>
         <v>197960867752.284</v>
       </c>
-      <c r="G21" s="119" t="n">
+      <c r="G21" s="120" t="n">
         <f aca="false">SUM(G22:G24)</f>
         <v>319161678.108</v>
       </c>
-      <c r="H21" s="119" t="n">
+      <c r="H21" s="120" t="n">
         <f aca="false">SUM(H22:H24)</f>
         <v>429134473431.3</v>
       </c>
-      <c r="I21" s="119" t="n">
+      <c r="I21" s="120" t="n">
         <f aca="false">SUM(I22:I24)</f>
         <v>627414502861.692</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="120"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="122" t="s">
+      <c r="A22" s="121"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="89" t="s">
         <v>423</v>
       </c>
       <c r="E22" s="89"/>
-      <c r="F22" s="114" t="n">
+      <c r="F22" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R22</f>
         <v>31595849408.76</v>
       </c>
-      <c r="G22" s="114" t="n">
+      <c r="G22" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="114" t="n">
+      <c r="H22" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T22</f>
         <v>21624381927.876</v>
       </c>
-      <c r="I22" s="114" t="n">
+      <c r="I22" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U22</f>
         <v>53220231336.636</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="120"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="122" t="s">
+      <c r="A23" s="121"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="89" t="s">
         <v>424</v>
       </c>
       <c r="E23" s="89"/>
-      <c r="F23" s="114" t="n">
+      <c r="F23" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R23</f>
         <v>132534099746.412</v>
       </c>
-      <c r="G23" s="114" t="n">
+      <c r="G23" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S23</f>
         <v>58904281.8</v>
       </c>
-      <c r="H23" s="114" t="n">
+      <c r="H23" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T23</f>
         <v>297614249488.92</v>
       </c>
-      <c r="I23" s="114" t="n">
+      <c r="I23" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U23</f>
         <v>430207253517.132</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="125"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="127" t="s">
+      <c r="A24" s="126"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="128" t="s">
         <v>374</v>
       </c>
-      <c r="D24" s="128" t="s">
+      <c r="D24" s="129" t="s">
         <v>425</v>
       </c>
-      <c r="E24" s="128"/>
-      <c r="F24" s="114" t="n">
+      <c r="E24" s="129"/>
+      <c r="F24" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R183</f>
         <v>33830918597.112</v>
       </c>
-      <c r="G24" s="114" t="n">
+      <c r="G24" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S183</f>
         <v>260257396.308</v>
       </c>
-      <c r="H24" s="114" t="n">
+      <c r="H24" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T183</f>
         <v>109895842014.504</v>
       </c>
-      <c r="I24" s="114" t="n">
+      <c r="I24" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U183</f>
         <v>143987018007.924</v>
       </c>
     </row>
     <row r="25" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="122"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="119" t="n">
+      <c r="C25" s="123"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="120" t="n">
         <f aca="false">SUM(F26:F28)</f>
         <v>1491911148000</v>
       </c>
-      <c r="G25" s="119" t="n">
+      <c r="G25" s="120" t="n">
         <f aca="false">SUM(G26:G28)</f>
         <v>4591755532.728</v>
       </c>
-      <c r="H25" s="119" t="n">
+      <c r="H25" s="120" t="n">
         <f aca="false">SUM(H26:H28)</f>
         <v>129283292212.62</v>
       </c>
-      <c r="I25" s="119" t="n">
+      <c r="I25" s="120" t="n">
         <f aca="false">SUM(I26:I28)</f>
         <v>1625786195745.35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="120"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="131" t="s">
+      <c r="A26" s="121"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="132" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="89" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="89"/>
-      <c r="F26" s="114" t="n">
+      <c r="F26" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R25</f>
         <v>618011940000</v>
       </c>
-      <c r="G26" s="114" t="n">
+      <c r="G26" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S25</f>
         <v>548552020.38</v>
       </c>
-      <c r="H26" s="114" t="n">
+      <c r="H26" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T25</f>
         <v>0</v>
       </c>
-      <c r="I26" s="114" t="n">
+      <c r="I26" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U25</f>
         <v>618560492020.38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="120"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="122" t="s">
+      <c r="A27" s="121"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="123" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="89" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="89"/>
-      <c r="F27" s="114" t="n">
+      <c r="F27" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R26</f>
         <v>710065356000</v>
       </c>
-      <c r="G27" s="114" t="n">
+      <c r="G27" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S26</f>
         <v>3530209957.092</v>
       </c>
-      <c r="H27" s="114" t="n">
+      <c r="H27" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T26</f>
         <v>67006238745.264</v>
       </c>
-      <c r="I27" s="114" t="n">
+      <c r="I27" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U26</f>
         <v>780601804702.356</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="125"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127" t="s">
+      <c r="A28" s="126"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="128" t="s">
+      <c r="D28" s="129" t="s">
         <v>426</v>
       </c>
-      <c r="E28" s="128"/>
-      <c r="F28" s="114" t="n">
+      <c r="E28" s="129"/>
+      <c r="F28" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R27</f>
         <v>163833852000</v>
       </c>
-      <c r="G28" s="114" t="n">
+      <c r="G28" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S27</f>
         <v>512993555.256</v>
       </c>
-      <c r="H28" s="114" t="n">
+      <c r="H28" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T27</f>
         <v>62277053467.356</v>
       </c>
-      <c r="I28" s="114" t="n">
+      <c r="I28" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U27</f>
         <v>226623899022.612</v>
       </c>
     </row>
     <row r="29" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="116" t="s">
+      <c r="B29" s="117" t="s">
         <v>427</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="119" t="n">
+      <c r="C29" s="124"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="120" t="n">
         <f aca="false">SUM(F30:F34)</f>
         <v>4161265071600</v>
       </c>
-      <c r="G29" s="119" t="n">
+      <c r="G29" s="120" t="n">
         <f aca="false">SUM(G30:G34)</f>
         <v>99864404595.228</v>
       </c>
-      <c r="H29" s="119" t="n">
+      <c r="H29" s="120" t="n">
         <f aca="false">SUM(H30:H34)</f>
         <v>591975082948.704</v>
       </c>
-      <c r="I29" s="119" t="n">
+      <c r="I29" s="120" t="n">
         <f aca="false">SUM(I30:I34)</f>
         <v>4853104559143.93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="120"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="131" t="s">
+      <c r="A30" s="121"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="132" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="89" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="89"/>
-      <c r="F30" s="114" t="n">
+      <c r="F30" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R29</f>
         <v>145743234000</v>
       </c>
-      <c r="G30" s="114" t="n">
+      <c r="G30" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S29</f>
         <v>642746506.584</v>
       </c>
-      <c r="H30" s="114" t="n">
+      <c r="H30" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T29</f>
         <v>71102265609.648</v>
       </c>
-      <c r="I30" s="114" t="n">
+      <c r="I30" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U29</f>
         <v>217488246116.232</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="120"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="131" t="s">
+      <c r="A31" s="121"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="132" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="89" t="s">
         <v>69</v>
       </c>
       <c r="E31" s="89"/>
-      <c r="F31" s="114" t="n">
+      <c r="F31" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R30</f>
         <v>887819696400</v>
       </c>
-      <c r="G31" s="114" t="n">
+      <c r="G31" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S30</f>
         <v>12288932072.508</v>
       </c>
-      <c r="H31" s="114" t="n">
+      <c r="H31" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T30</f>
         <v>183986687784.9</v>
       </c>
-      <c r="I31" s="114" t="n">
+      <c r="I31" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U30</f>
         <v>1084095316257.41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="120"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="122" t="s">
+      <c r="A32" s="121"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="89" t="s">
         <v>71</v>
       </c>
       <c r="E32" s="89"/>
-      <c r="F32" s="114" t="n">
+      <c r="F32" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R31</f>
         <v>1751446242000</v>
       </c>
-      <c r="G32" s="114" t="n">
+      <c r="G32" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S31</f>
         <v>86932726016.136</v>
       </c>
-      <c r="H32" s="114" t="n">
+      <c r="H32" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T31</f>
         <v>3276000000</v>
       </c>
-      <c r="I32" s="114" t="n">
+      <c r="I32" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U31</f>
         <v>1841654968016.14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="120"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122" t="s">
+      <c r="A33" s="121"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="123" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="89" t="s">
         <v>428</v>
       </c>
       <c r="E33" s="89"/>
-      <c r="F33" s="114" t="n">
+      <c r="F33" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R32</f>
         <v>112967509200</v>
       </c>
-      <c r="G33" s="114" t="n">
+      <c r="G33" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S32</f>
         <v>0</v>
       </c>
-      <c r="H33" s="114" t="n">
+      <c r="H33" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T32</f>
         <v>16408992600</v>
       </c>
-      <c r="I33" s="114" t="n">
+      <c r="I33" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U32</f>
         <v>129376501800</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="120"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122" t="s">
+      <c r="A34" s="121"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="123" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="89" t="s">
         <v>75</v>
       </c>
       <c r="E34" s="89"/>
-      <c r="F34" s="114" t="n">
+      <c r="F34" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R33</f>
         <v>1263288390000</v>
       </c>
-      <c r="G34" s="114" t="n">
+      <c r="G34" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S33</f>
         <v>0</v>
       </c>
-      <c r="H34" s="114" t="n">
+      <c r="H34" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T33</f>
         <v>317201136954.156</v>
       </c>
-      <c r="I34" s="114" t="n">
+      <c r="I34" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U33</f>
         <v>1580489526954.16</v>
       </c>
     </row>
     <row r="35" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="115" t="s">
+      <c r="A35" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="119" t="n">
+      <c r="C35" s="124"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="120" t="n">
         <f aca="false">SUM(F36:F43)</f>
         <v>48008216899426.1</v>
       </c>
-      <c r="G35" s="119" t="n">
+      <c r="G35" s="120" t="n">
         <f aca="false">SUM(G36:G43)</f>
         <v>23812407577.14</v>
       </c>
-      <c r="H35" s="119" t="n">
+      <c r="H35" s="120" t="n">
         <f aca="false">SUM(H36:H43)</f>
         <v>11220428559324.4</v>
       </c>
-      <c r="I35" s="119" t="n">
+      <c r="I35" s="120" t="n">
         <f aca="false">SUM(I36:I43)</f>
         <v>59252457866327.6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="120"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="122" t="s">
+      <c r="A36" s="121"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="123" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="89" t="s">
         <v>429</v>
       </c>
       <c r="E36" s="89"/>
-      <c r="F36" s="114" t="n">
+      <c r="F36" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R35:R35</f>
         <v>45036645751426.1</v>
       </c>
-      <c r="G36" s="114" t="n">
+      <c r="G36" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S35:S35</f>
         <v>193914721.728</v>
       </c>
-      <c r="H36" s="114" t="n">
+      <c r="H36" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T35:T35</f>
         <v>10860798665424.7</v>
       </c>
-      <c r="I36" s="114" t="n">
+      <c r="I36" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U35:U35</f>
         <v>55897638331572.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="120"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="122" t="s">
+      <c r="A37" s="121"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="123" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="89" t="s">
         <v>430</v>
       </c>
       <c r="E37" s="89"/>
-      <c r="F37" s="114" t="n">
+      <c r="F37" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R36:R36</f>
         <v>17820348000</v>
       </c>
-      <c r="G37" s="114" t="n">
+      <c r="G37" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S36:S36</f>
         <v>0</v>
       </c>
-      <c r="H37" s="114" t="n">
+      <c r="H37" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T36:T36</f>
         <v>10987977000</v>
       </c>
-      <c r="I37" s="114" t="n">
+      <c r="I37" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U36:U36</f>
         <v>28808325000</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="120"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="122" t="s">
+      <c r="A38" s="121"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="123" t="s">
         <v>82</v>
       </c>
       <c r="D38" s="89" t="s">
         <v>431</v>
       </c>
       <c r="E38" s="89"/>
-      <c r="F38" s="114" t="n">
+      <c r="F38" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R37:R37</f>
         <v>22680840000</v>
       </c>
-      <c r="G38" s="114" t="n">
+      <c r="G38" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S37:S37</f>
         <v>90636000</v>
       </c>
-      <c r="H38" s="114" t="n">
+      <c r="H38" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T37:T37</f>
         <v>48790909149.528</v>
       </c>
-      <c r="I38" s="114" t="n">
+      <c r="I38" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U37:U37</f>
         <v>71562385149.528</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="120"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="122" t="s">
+      <c r="A39" s="121"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="123" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="89" t="s">
         <v>432</v>
       </c>
       <c r="E39" s="89"/>
-      <c r="F39" s="114" t="n">
+      <c r="F39" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R38:R38</f>
         <v>2314261404000</v>
       </c>
-      <c r="G39" s="114" t="n">
+      <c r="G39" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S38:S38</f>
         <v>0</v>
       </c>
-      <c r="H39" s="114" t="n">
+      <c r="H39" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T38:T38</f>
         <v>122522400000</v>
       </c>
-      <c r="I39" s="114" t="n">
+      <c r="I39" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U38:U38</f>
         <v>2436783804000</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="120"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="122" t="s">
+      <c r="A40" s="121"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="123" t="s">
         <v>86</v>
       </c>
       <c r="D40" s="89" t="s">
         <v>433</v>
       </c>
       <c r="E40" s="89"/>
-      <c r="F40" s="114" t="n">
+      <c r="F40" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R39:R39</f>
         <v>21309288000</v>
       </c>
-      <c r="G40" s="114" t="n">
+      <c r="G40" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S39:S39</f>
         <v>0</v>
       </c>
-      <c r="H40" s="114" t="n">
+      <c r="H40" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T39:T39</f>
         <v>5533972080</v>
       </c>
-      <c r="I40" s="114" t="n">
+      <c r="I40" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U39:U39</f>
         <v>26843260080</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="120"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="122" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="123" t="s">
         <v>88</v>
       </c>
       <c r="D41" s="89" t="s">
         <v>89</v>
       </c>
       <c r="E41" s="89"/>
-      <c r="F41" s="114" t="n">
+      <c r="F41" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R40:R40</f>
         <v>324652692000</v>
       </c>
-      <c r="G41" s="114" t="n">
+      <c r="G41" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S40:S40</f>
         <v>50232000</v>
       </c>
-      <c r="H41" s="114" t="n">
+      <c r="H41" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T40:T40</f>
         <v>39450424205.556</v>
       </c>
-      <c r="I41" s="114" t="n">
+      <c r="I41" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U40:U40</f>
         <v>364153348205.556</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="120"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="122" t="s">
+      <c r="A42" s="121"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="123" t="s">
         <v>90</v>
       </c>
       <c r="D42" s="89" t="s">
         <v>434</v>
       </c>
       <c r="E42" s="89"/>
-      <c r="F42" s="114" t="n">
+      <c r="F42" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R41:R41</f>
         <v>235664520000</v>
       </c>
-      <c r="G42" s="114" t="n">
+      <c r="G42" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S41:S41</f>
         <v>21730197603.66</v>
       </c>
-      <c r="H42" s="114" t="n">
+      <c r="H42" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T41:T41</f>
         <v>8736000000</v>
       </c>
-      <c r="I42" s="114" t="n">
+      <c r="I42" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U41:U41</f>
         <v>266130717603.66</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="125"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="127" t="s">
+      <c r="A43" s="126"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="128" t="s">
+      <c r="D43" s="129" t="s">
         <v>435</v>
       </c>
-      <c r="E43" s="128"/>
-      <c r="F43" s="114" t="n">
+      <c r="E43" s="129"/>
+      <c r="F43" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R42:R42</f>
         <v>35182056000</v>
       </c>
-      <c r="G43" s="114" t="n">
+      <c r="G43" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S42:S42</f>
         <v>1747427251.752</v>
       </c>
-      <c r="H43" s="114" t="n">
+      <c r="H43" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T42:T42</f>
         <v>123608211464.556</v>
       </c>
-      <c r="I43" s="114" t="n">
+      <c r="I43" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U42:U42</f>
         <v>160537694716.308</v>
       </c>
     </row>
     <row r="44" s="104" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="120" t="s">
+      <c r="A44" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="121" t="s">
+      <c r="B44" s="122" t="s">
         <v>436</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="119" t="n">
+      <c r="C44" s="123"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="120" t="n">
         <f aca="false">SUM(F45)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="119" t="n">
+      <c r="G44" s="120" t="n">
         <f aca="false">SUM(G45)</f>
         <v>78930394667967</v>
       </c>
-      <c r="H44" s="119" t="n">
+      <c r="H44" s="120" t="n">
         <f aca="false">SUM(H45)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="119" t="n">
+      <c r="I44" s="120" t="n">
         <f aca="false">SUM(I45)</f>
         <v>78930394667967</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="120"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="122" t="s">
+      <c r="A45" s="121"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="123" t="s">
         <v>96</v>
       </c>
       <c r="D45" s="89" t="s">
         <v>437</v>
       </c>
       <c r="E45" s="89"/>
-      <c r="F45" s="114" t="n">
+      <c r="F45" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R44</f>
         <v>0</v>
       </c>
-      <c r="G45" s="114" t="n">
+      <c r="G45" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S44</f>
         <v>78930394667967</v>
       </c>
-      <c r="H45" s="114" t="n">
+      <c r="H45" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T44</f>
         <v>0</v>
       </c>
-      <c r="I45" s="114" t="n">
+      <c r="I45" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U44</f>
         <v>78930394667967</v>
       </c>
     </row>
     <row r="46" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="117" t="s">
         <v>438</v>
       </c>
-      <c r="C46" s="123"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="119" t="n">
+      <c r="C46" s="124"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="120" t="n">
         <f aca="false">SUM(F47:F58)</f>
         <v>46723639167660</v>
       </c>
-      <c r="G46" s="119" t="n">
+      <c r="G46" s="120" t="n">
         <f aca="false">SUM(G47:G58)</f>
         <v>1830768815301.97</v>
       </c>
-      <c r="H46" s="119" t="n">
+      <c r="H46" s="120" t="n">
         <f aca="false">SUM(H47:H58)</f>
         <v>2163789968340</v>
       </c>
-      <c r="I46" s="119" t="n">
+      <c r="I46" s="120" t="n">
         <f aca="false">SUM(I47:I58)</f>
         <v>50718197951302</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="120"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="122" t="s">
+      <c r="A47" s="121"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="123" t="s">
         <v>100</v>
       </c>
       <c r="D47" s="89" t="s">
         <v>101</v>
       </c>
       <c r="E47" s="89"/>
-      <c r="F47" s="114" t="n">
+      <c r="F47" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R46</f>
         <v>19048543719660</v>
       </c>
-      <c r="G47" s="114" t="n">
+      <c r="G47" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S46</f>
         <v>1261169839664.28</v>
       </c>
-      <c r="H47" s="114" t="n">
+      <c r="H47" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T46</f>
         <v>1780192208340</v>
       </c>
-      <c r="I47" s="114" t="n">
+      <c r="I47" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U46</f>
         <v>22089905767664.3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="120"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="122" t="s">
+      <c r="A48" s="121"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="123" t="s">
         <v>102</v>
       </c>
       <c r="D48" s="89" t="s">
         <v>103</v>
       </c>
       <c r="E48" s="89"/>
-      <c r="F48" s="114" t="n">
+      <c r="F48" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R47</f>
         <v>6142823232000</v>
       </c>
-      <c r="G48" s="114" t="n">
+      <c r="G48" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S47</f>
         <v>6934780412.196</v>
       </c>
-      <c r="H48" s="114" t="n">
+      <c r="H48" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T47</f>
         <v>19764108000</v>
       </c>
-      <c r="I48" s="114" t="n">
+      <c r="I48" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U47</f>
         <v>6169522120412.2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="120"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="122" t="s">
+      <c r="A49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="123" t="s">
         <v>104</v>
       </c>
       <c r="D49" s="89" t="s">
         <v>439</v>
       </c>
       <c r="E49" s="89"/>
-      <c r="F49" s="114" t="n">
+      <c r="F49" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R48</f>
         <v>33336576000</v>
       </c>
-      <c r="G49" s="114" t="n">
+      <c r="G49" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S48</f>
         <v>26678655.276</v>
       </c>
-      <c r="H49" s="114" t="n">
+      <c r="H49" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T48</f>
         <v>21037380000</v>
       </c>
-      <c r="I49" s="114" t="n">
+      <c r="I49" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U48</f>
         <v>54400634655.276</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="120"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="122" t="s">
+      <c r="A50" s="121"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="123" t="s">
         <v>106</v>
       </c>
       <c r="D50" s="89" t="s">
         <v>107</v>
       </c>
       <c r="E50" s="89"/>
-      <c r="F50" s="114" t="n">
+      <c r="F50" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R49</f>
         <v>39935532000</v>
       </c>
-      <c r="G50" s="114" t="n">
+      <c r="G50" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S49</f>
         <v>298818809.016</v>
       </c>
-      <c r="H50" s="114" t="n">
+      <c r="H50" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T49</f>
         <v>12159420000</v>
       </c>
-      <c r="I50" s="114" t="n">
+      <c r="I50" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U49</f>
         <v>52393770809.016</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="120"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="122" t="s">
+      <c r="A51" s="121"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="123" t="s">
         <v>108</v>
       </c>
       <c r="D51" s="89" t="s">
         <v>109</v>
       </c>
       <c r="E51" s="89"/>
-      <c r="F51" s="114" t="n">
+      <c r="F51" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R50</f>
         <v>56030520000</v>
       </c>
-      <c r="G51" s="114" t="n">
+      <c r="G51" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S50</f>
         <v>177223786.74</v>
       </c>
-      <c r="H51" s="114" t="n">
+      <c r="H51" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T50</f>
         <v>5460000000</v>
       </c>
-      <c r="I51" s="114" t="n">
+      <c r="I51" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U50</f>
         <v>61667743786.74</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="120"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="122" t="s">
+      <c r="A52" s="121"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="123" t="s">
         <v>110</v>
       </c>
       <c r="D52" s="89" t="s">
         <v>440</v>
       </c>
       <c r="E52" s="89"/>
-      <c r="F52" s="114" t="n">
+      <c r="F52" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R51</f>
         <v>5846806056000</v>
       </c>
-      <c r="G52" s="114" t="n">
+      <c r="G52" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S51</f>
         <v>11507917532.748</v>
       </c>
-      <c r="H52" s="114" t="n">
+      <c r="H52" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T51</f>
         <v>11452896000</v>
       </c>
-      <c r="I52" s="114" t="n">
+      <c r="I52" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U51</f>
         <v>5869766869532.75</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="120"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="122" t="s">
+      <c r="A53" s="121"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="123" t="s">
         <v>112</v>
       </c>
       <c r="D53" s="89" t="s">
         <v>441</v>
       </c>
       <c r="E53" s="89"/>
-      <c r="F53" s="114" t="n">
+      <c r="F53" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R52</f>
         <v>409289244000</v>
       </c>
-      <c r="G53" s="114" t="n">
+      <c r="G53" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S52</f>
         <v>150285608.928</v>
       </c>
-      <c r="H53" s="114" t="n">
+      <c r="H53" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T52</f>
         <v>1725360000</v>
       </c>
-      <c r="I53" s="114" t="n">
+      <c r="I53" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U52</f>
         <v>411164889608.928</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="120"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="122" t="s">
+      <c r="A54" s="121"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="123" t="s">
         <v>114</v>
       </c>
       <c r="D54" s="89" t="s">
         <v>115</v>
       </c>
       <c r="E54" s="89"/>
-      <c r="F54" s="114" t="n">
+      <c r="F54" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R53</f>
         <v>26087880000</v>
       </c>
-      <c r="G54" s="114" t="n">
+      <c r="G54" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S53</f>
         <v>0</v>
       </c>
-      <c r="H54" s="114" t="n">
+      <c r="H54" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T53</f>
         <v>5984160000</v>
       </c>
-      <c r="I54" s="114" t="n">
+      <c r="I54" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U53</f>
         <v>32072040000</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="120"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="122" t="s">
+      <c r="A55" s="121"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="123" t="s">
         <v>116</v>
       </c>
       <c r="D55" s="89" t="s">
         <v>117</v>
       </c>
       <c r="E55" s="89"/>
-      <c r="F55" s="114" t="n">
+      <c r="F55" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R54</f>
         <v>488343492000</v>
       </c>
-      <c r="G55" s="114" t="n">
+      <c r="G55" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S54</f>
         <v>1160907437.508</v>
       </c>
-      <c r="H55" s="114" t="n">
+      <c r="H55" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T54</f>
         <v>16380000000</v>
       </c>
-      <c r="I55" s="114" t="n">
+      <c r="I55" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U54</f>
         <v>505884399437.508</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="120"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="122" t="s">
+      <c r="A56" s="121"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="123" t="s">
         <v>118</v>
       </c>
       <c r="D56" s="89" t="s">
         <v>442</v>
       </c>
       <c r="E56" s="89"/>
-      <c r="F56" s="114" t="n">
+      <c r="F56" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R55</f>
         <v>507292968000</v>
       </c>
-      <c r="G56" s="114" t="n">
+      <c r="G56" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S55</f>
         <v>561109887.156</v>
       </c>
-      <c r="H56" s="114" t="n">
+      <c r="H56" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T55</f>
         <v>8364720000</v>
       </c>
-      <c r="I56" s="114" t="n">
+      <c r="I56" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U55</f>
         <v>516218797887.156</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="120"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="122" t="s">
+      <c r="A57" s="121"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="123" t="s">
         <v>120</v>
       </c>
       <c r="D57" s="89" t="s">
         <v>121</v>
       </c>
       <c r="E57" s="89"/>
-      <c r="F57" s="114" t="n">
+      <c r="F57" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R56</f>
         <v>109737264000</v>
       </c>
-      <c r="G57" s="114" t="n">
+      <c r="G57" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S56</f>
         <v>101512479.432</v>
       </c>
-      <c r="H57" s="114" t="n">
+      <c r="H57" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T56</f>
         <v>5460000000</v>
       </c>
-      <c r="I57" s="114" t="n">
+      <c r="I57" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U56</f>
         <v>115298776479.432</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="125"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="127" t="s">
+      <c r="A58" s="126"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="128" t="s">
+      <c r="D58" s="129" t="s">
         <v>443</v>
       </c>
-      <c r="E58" s="128"/>
-      <c r="F58" s="114" t="n">
+      <c r="E58" s="129"/>
+      <c r="F58" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R58</f>
         <v>14015412684000</v>
       </c>
-      <c r="G58" s="114" t="n">
+      <c r="G58" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S58</f>
         <v>548679741028.692</v>
       </c>
-      <c r="H58" s="114" t="n">
+      <c r="H58" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T58</f>
         <v>275809716000</v>
       </c>
-      <c r="I58" s="114" t="n">
+      <c r="I58" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U58</f>
         <v>14839902141028.7</v>
       </c>
     </row>
     <row r="59" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="120" t="s">
+      <c r="A59" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="121" t="s">
+      <c r="B59" s="122" t="s">
         <v>444</v>
       </c>
-      <c r="C59" s="122"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="119" t="n">
+      <c r="C59" s="123"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="120" t="n">
         <f aca="false">SUM(F60:F65)</f>
         <v>1016682515409.29</v>
       </c>
-      <c r="G59" s="119" t="n">
+      <c r="G59" s="120" t="n">
         <f aca="false">SUM(G60:G65)</f>
         <v>11236683245.424</v>
       </c>
-      <c r="H59" s="119" t="n">
+      <c r="H59" s="120" t="n">
         <f aca="false">SUM(H60:H65)</f>
         <v>4853502691369.33</v>
       </c>
-      <c r="I59" s="119" t="n">
+      <c r="I59" s="120" t="n">
         <f aca="false">SUM(I60:I65)</f>
         <v>5881421890024.05</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="120"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="131" t="s">
+      <c r="A60" s="121"/>
+      <c r="B60" s="131"/>
+      <c r="C60" s="132" t="s">
         <v>128</v>
       </c>
       <c r="D60" s="89" t="s">
         <v>129</v>
       </c>
       <c r="E60" s="89"/>
-      <c r="F60" s="114" t="n">
+      <c r="F60" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R60</f>
         <v>497132301993.6</v>
       </c>
-      <c r="G60" s="114" t="n">
+      <c r="G60" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S60</f>
         <v>1938896529.024</v>
       </c>
-      <c r="H60" s="114" t="n">
+      <c r="H60" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T60</f>
         <v>1496745596892</v>
       </c>
-      <c r="I60" s="114" t="n">
+      <c r="I60" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U60</f>
         <v>1995816795414.62</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="120"/>
-      <c r="B61" s="130"/>
-      <c r="C61" s="131" t="s">
+      <c r="A61" s="121"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="132" t="s">
         <v>130</v>
       </c>
       <c r="D61" s="89" t="s">
         <v>131</v>
       </c>
       <c r="E61" s="89"/>
-      <c r="F61" s="114" t="n">
+      <c r="F61" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R61</f>
         <v>215955058956</v>
       </c>
-      <c r="G61" s="114" t="n">
+      <c r="G61" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S61</f>
         <v>363951245.112</v>
       </c>
-      <c r="H61" s="114" t="n">
+      <c r="H61" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T61</f>
         <v>279255809472.276</v>
       </c>
-      <c r="I61" s="114" t="n">
+      <c r="I61" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U61</f>
         <v>495574819673.388</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="120"/>
-      <c r="B62" s="130"/>
-      <c r="C62" s="131" t="s">
+      <c r="A62" s="121"/>
+      <c r="B62" s="131"/>
+      <c r="C62" s="132" t="s">
         <v>132</v>
       </c>
       <c r="D62" s="89" t="s">
         <v>133</v>
       </c>
       <c r="E62" s="89"/>
-      <c r="F62" s="114" t="n">
+      <c r="F62" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R62</f>
         <v>48593385204</v>
       </c>
-      <c r="G62" s="114" t="n">
+      <c r="G62" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S62</f>
         <v>20115774.588</v>
       </c>
-      <c r="H62" s="114" t="n">
+      <c r="H62" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T62</f>
         <v>93256510469.304</v>
       </c>
-      <c r="I62" s="114" t="n">
+      <c r="I62" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U62</f>
         <v>141870011447.892</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="120"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="122" t="s">
+      <c r="A63" s="121"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="123" t="s">
         <v>134</v>
       </c>
       <c r="D63" s="89" t="s">
         <v>135</v>
       </c>
       <c r="E63" s="89"/>
-      <c r="F63" s="114" t="n">
+      <c r="F63" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R63</f>
         <v>74221160832</v>
       </c>
-      <c r="G63" s="114" t="n">
+      <c r="G63" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S63</f>
         <v>1956866808.624</v>
       </c>
-      <c r="H63" s="114" t="n">
+      <c r="H63" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T63</f>
         <v>387614396456.196</v>
       </c>
-      <c r="I63" s="114" t="n">
+      <c r="I63" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U63</f>
         <v>463792424096.82</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="120"/>
-      <c r="B64" s="130"/>
-      <c r="C64" s="131" t="s">
+      <c r="A64" s="121"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="132" t="s">
         <v>136</v>
       </c>
       <c r="D64" s="89" t="s">
         <v>137</v>
       </c>
       <c r="E64" s="89"/>
-      <c r="F64" s="114" t="n">
+      <c r="F64" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R64</f>
         <v>80288865666.828</v>
       </c>
-      <c r="G64" s="114" t="n">
+      <c r="G64" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S64</f>
         <v>6254180582.832</v>
       </c>
-      <c r="H64" s="114" t="n">
+      <c r="H64" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T64</f>
         <v>1939843656377.17</v>
       </c>
-      <c r="I64" s="114" t="n">
+      <c r="I64" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U64</f>
         <v>2026386702626.83</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="120"/>
-      <c r="B65" s="130"/>
-      <c r="C65" s="131" t="s">
+      <c r="A65" s="121"/>
+      <c r="B65" s="131"/>
+      <c r="C65" s="132" t="s">
         <v>138</v>
       </c>
       <c r="D65" s="89" t="s">
         <v>139</v>
       </c>
       <c r="E65" s="89"/>
-      <c r="F65" s="114" t="n">
+      <c r="F65" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R65</f>
         <v>100491742756.86</v>
       </c>
-      <c r="G65" s="114" t="n">
+      <c r="G65" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S65</f>
         <v>702672305.244</v>
       </c>
-      <c r="H65" s="114" t="n">
+      <c r="H65" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T65</f>
         <v>656786721702.384</v>
       </c>
-      <c r="I65" s="114" t="n">
+      <c r="I65" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U65</f>
         <v>757981136764.488</v>
       </c>
     </row>
     <row r="66" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="115" t="s">
+      <c r="A66" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="116" t="s">
+      <c r="B66" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="C66" s="123"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="119" t="n">
+      <c r="C66" s="124"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="120" t="n">
         <f aca="false">SUM(F67:F72)</f>
         <v>54776352725335.3</v>
       </c>
-      <c r="G66" s="119" t="n">
+      <c r="G66" s="120" t="n">
         <f aca="false">SUM(G67:G72)</f>
         <v>20802980783.676</v>
       </c>
-      <c r="H66" s="119" t="n">
+      <c r="H66" s="120" t="n">
         <f aca="false">SUM(H67:H72)</f>
         <v>2308073942061.89</v>
       </c>
-      <c r="I66" s="119" t="n">
+      <c r="I66" s="120" t="n">
         <f aca="false">SUM(I67:I72)</f>
         <v>57105229648180.9</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="120"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="122" t="s">
+      <c r="A67" s="121"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="123" t="s">
         <v>142</v>
       </c>
       <c r="D67" s="89" t="s">
         <v>446</v>
       </c>
       <c r="E67" s="89"/>
-      <c r="F67" s="114" t="n">
+      <c r="F67" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R67</f>
         <v>53235805691491.3</v>
       </c>
-      <c r="G67" s="114" t="n">
+      <c r="G67" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S67</f>
         <v>8540673108.24</v>
       </c>
-      <c r="H67" s="114" t="n">
+      <c r="H67" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T67</f>
         <v>2046482617534.99</v>
       </c>
-      <c r="I67" s="114" t="n">
+      <c r="I67" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U67</f>
         <v>55290828982134.6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="120"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="122" t="s">
+      <c r="A68" s="121"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="123" t="s">
         <v>144</v>
       </c>
       <c r="D68" s="89" t="s">
         <v>145</v>
       </c>
       <c r="E68" s="89"/>
-      <c r="F68" s="114" t="n">
+      <c r="F68" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R68</f>
         <v>51913852536</v>
       </c>
-      <c r="G68" s="114" t="n">
+      <c r="G68" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S68</f>
         <v>56931024.696</v>
       </c>
-      <c r="H68" s="114" t="n">
+      <c r="H68" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T68</f>
         <v>66113035702.896</v>
       </c>
-      <c r="I68" s="114" t="n">
+      <c r="I68" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U68</f>
         <v>118083819263.592</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="120"/>
-      <c r="B69" s="121"/>
-      <c r="C69" s="122" t="s">
+      <c r="A69" s="121"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="123" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="89" t="s">
         <v>147</v>
       </c>
       <c r="E69" s="89"/>
-      <c r="F69" s="114" t="n">
+      <c r="F69" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R69</f>
         <v>219238040112</v>
       </c>
-      <c r="G69" s="114" t="n">
+      <c r="G69" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S69</f>
         <v>8423591348.172</v>
       </c>
-      <c r="H69" s="114" t="n">
+      <c r="H69" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T69</f>
         <v>83220688824</v>
       </c>
-      <c r="I69" s="114" t="n">
+      <c r="I69" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U69</f>
         <v>310882320284.172</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="120"/>
-      <c r="B70" s="121"/>
-      <c r="C70" s="122" t="s">
+      <c r="A70" s="121"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="123" t="s">
         <v>148</v>
       </c>
       <c r="D70" s="89" t="s">
         <v>149</v>
       </c>
       <c r="E70" s="89"/>
-      <c r="F70" s="114" t="n">
+      <c r="F70" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R70</f>
         <v>160100555160</v>
       </c>
-      <c r="G70" s="114" t="n">
+      <c r="G70" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S70</f>
         <v>2327172134.196</v>
       </c>
-      <c r="H70" s="114" t="n">
+      <c r="H70" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T70</f>
         <v>109200000000</v>
       </c>
-      <c r="I70" s="114" t="n">
+      <c r="I70" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U70</f>
         <v>271627727294.196</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="120"/>
-      <c r="B71" s="121"/>
-      <c r="C71" s="122" t="s">
+      <c r="A71" s="121"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="123" t="s">
         <v>150</v>
       </c>
       <c r="D71" s="89" t="s">
         <v>447</v>
       </c>
       <c r="E71" s="89"/>
-      <c r="F71" s="114" t="n">
+      <c r="F71" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R71</f>
         <v>385070118888</v>
       </c>
-      <c r="G71" s="114" t="n">
+      <c r="G71" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S71</f>
         <v>1454613168.372</v>
       </c>
-      <c r="H71" s="114" t="n">
+      <c r="H71" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T71</f>
         <v>327600000</v>
       </c>
-      <c r="I71" s="114" t="n">
+      <c r="I71" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U71</f>
         <v>386852332056.372</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="120"/>
-      <c r="B72" s="121"/>
-      <c r="C72" s="122" t="s">
+      <c r="A72" s="121"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="123" t="s">
         <v>152</v>
       </c>
       <c r="D72" s="89" t="s">
         <v>448</v>
       </c>
       <c r="E72" s="89"/>
-      <c r="F72" s="114" t="n">
+      <c r="F72" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R72</f>
         <v>724224467148</v>
       </c>
-      <c r="G72" s="114" t="n">
+      <c r="G72" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S72</f>
         <v>0</v>
       </c>
-      <c r="H72" s="114" t="n">
+      <c r="H72" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T72</f>
         <v>2730000000</v>
       </c>
-      <c r="I72" s="114" t="n">
+      <c r="I72" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U72</f>
         <v>726954467148</v>
       </c>
     </row>
     <row r="73" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="115" t="s">
+      <c r="A73" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="116" t="s">
+      <c r="B73" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="123"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="119" t="n">
+      <c r="C73" s="124"/>
+      <c r="D73" s="125"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="120" t="n">
         <f aca="false">SUM(F74:F79)</f>
         <v>1926832115663.36</v>
       </c>
-      <c r="G73" s="119" t="n">
+      <c r="G73" s="120" t="n">
         <f aca="false">SUM(G74:G79)</f>
         <v>27117164359.74</v>
       </c>
-      <c r="H73" s="119" t="n">
+      <c r="H73" s="120" t="n">
         <f aca="false">SUM(H74:H79)</f>
         <v>7911087857446.96</v>
       </c>
-      <c r="I73" s="119" t="n">
+      <c r="I73" s="120" t="n">
         <f aca="false">SUM(I74:I79)</f>
         <v>9865037137470.06</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="120"/>
-      <c r="B74" s="121"/>
-      <c r="C74" s="122" t="s">
+      <c r="A74" s="121"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="123" t="s">
         <v>156</v>
       </c>
       <c r="D74" s="89" t="s">
         <v>449</v>
       </c>
       <c r="E74" s="89"/>
-      <c r="F74" s="114" t="n">
+      <c r="F74" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R74</f>
         <v>198464834512.308</v>
       </c>
-      <c r="G74" s="114" t="n">
+      <c r="G74" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S74</f>
         <v>19468378816.068</v>
       </c>
-      <c r="H74" s="114" t="n">
+      <c r="H74" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T74</f>
         <v>7166008908637.49</v>
       </c>
-      <c r="I74" s="114" t="n">
+      <c r="I74" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U74</f>
         <v>7383942121965.86</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="120"/>
-      <c r="B75" s="121"/>
-      <c r="C75" s="122" t="s">
+      <c r="A75" s="121"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="123" t="s">
         <v>158</v>
       </c>
       <c r="D75" s="89" t="s">
         <v>159</v>
       </c>
       <c r="E75" s="89"/>
-      <c r="F75" s="114" t="n">
+      <c r="F75" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R75</f>
         <v>72977102025.828</v>
       </c>
-      <c r="G75" s="114" t="n">
+      <c r="G75" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S75</f>
         <v>150032990.016</v>
       </c>
-      <c r="H75" s="114" t="n">
+      <c r="H75" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T75</f>
         <v>142656837609.468</v>
       </c>
-      <c r="I75" s="114" t="n">
+      <c r="I75" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U75</f>
         <v>215783972625.312</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="120"/>
-      <c r="B76" s="121"/>
-      <c r="C76" s="122" t="s">
+      <c r="A76" s="121"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="123" t="s">
         <v>160</v>
       </c>
       <c r="D76" s="89" t="s">
         <v>450</v>
       </c>
       <c r="E76" s="89"/>
-      <c r="F76" s="114" t="n">
+      <c r="F76" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R76</f>
         <v>28828800000</v>
       </c>
-      <c r="G76" s="114" t="n">
+      <c r="G76" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S76</f>
         <v>0</v>
       </c>
-      <c r="H76" s="114" t="n">
+      <c r="H76" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T76</f>
         <v>30261504000</v>
       </c>
-      <c r="I76" s="114" t="n">
+      <c r="I76" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U76</f>
         <v>59090304000</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="120"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="122" t="s">
+      <c r="A77" s="121"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="123" t="s">
         <v>162</v>
       </c>
       <c r="D77" s="89" t="s">
         <v>451</v>
       </c>
       <c r="E77" s="89"/>
-      <c r="F77" s="114" t="n">
+      <c r="F77" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R77</f>
         <v>30158027359.824</v>
       </c>
-      <c r="G77" s="114" t="n">
+      <c r="G77" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S77</f>
         <v>1164032742.6</v>
       </c>
-      <c r="H77" s="114" t="n">
+      <c r="H77" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T77</f>
         <v>109200000000</v>
       </c>
-      <c r="I77" s="114" t="n">
+      <c r="I77" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U77</f>
         <v>140522060102.424</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="120"/>
-      <c r="B78" s="121"/>
-      <c r="C78" s="122" t="s">
+      <c r="A78" s="121"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="123" t="s">
         <v>164</v>
       </c>
       <c r="D78" s="89" t="s">
         <v>165</v>
       </c>
       <c r="E78" s="89"/>
-      <c r="F78" s="114" t="n">
+      <c r="F78" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R78</f>
         <v>1502668255765.4</v>
       </c>
-      <c r="G78" s="114" t="n">
+      <c r="G78" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S78</f>
         <v>6334719811.056</v>
       </c>
-      <c r="H78" s="114" t="n">
+      <c r="H78" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T78</f>
         <v>409362189600</v>
       </c>
-      <c r="I78" s="114" t="n">
+      <c r="I78" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U78</f>
         <v>1918365165176.46</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="120"/>
-      <c r="B79" s="121"/>
-      <c r="C79" s="122" t="s">
+      <c r="A79" s="121"/>
+      <c r="B79" s="122"/>
+      <c r="C79" s="123" t="s">
         <v>166</v>
       </c>
       <c r="D79" s="89" t="s">
         <v>167</v>
       </c>
       <c r="E79" s="89"/>
-      <c r="F79" s="114" t="n">
+      <c r="F79" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R79</f>
         <v>93735096000</v>
       </c>
-      <c r="G79" s="114" t="n">
+      <c r="G79" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S79</f>
         <v>0</v>
       </c>
-      <c r="H79" s="114" t="n">
+      <c r="H79" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T79</f>
         <v>53598417600</v>
       </c>
-      <c r="I79" s="114" t="n">
+      <c r="I79" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U79</f>
         <v>147333513600</v>
       </c>
     </row>
     <row r="80" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="115" t="s">
+      <c r="A80" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="116" t="s">
+      <c r="B80" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="C80" s="123"/>
-      <c r="D80" s="124"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="119" t="n">
+      <c r="C80" s="124"/>
+      <c r="D80" s="125"/>
+      <c r="E80" s="125"/>
+      <c r="F80" s="120" t="n">
         <f aca="false">SUM(F81:F88)</f>
         <v>54202752412663.8</v>
       </c>
-      <c r="G80" s="119" t="n">
+      <c r="G80" s="120" t="n">
         <f aca="false">SUM(G81:G88)</f>
         <v>0</v>
       </c>
-      <c r="H80" s="119" t="n">
+      <c r="H80" s="120" t="n">
         <f aca="false">SUM(H81:H88)</f>
         <v>8017305836009.65</v>
       </c>
-      <c r="I80" s="119" t="n">
+      <c r="I80" s="120" t="n">
         <f aca="false">SUM(I81:I88)</f>
         <v>62220058248673.4</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="120"/>
-      <c r="B81" s="121"/>
-      <c r="C81" s="122" t="s">
+      <c r="A81" s="121"/>
+      <c r="B81" s="122"/>
+      <c r="C81" s="123" t="s">
         <v>170</v>
       </c>
       <c r="D81" s="89" t="s">
         <v>452</v>
       </c>
       <c r="E81" s="89"/>
-      <c r="F81" s="114" t="n">
+      <c r="F81" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R81</f>
         <v>48671243458008.4</v>
       </c>
-      <c r="G81" s="114" t="n">
+      <c r="G81" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="114" t="n">
+      <c r="H81" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T81</f>
         <v>6147832412974.98</v>
       </c>
-      <c r="I81" s="114" t="n">
+      <c r="I81" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U81</f>
         <v>54819075870983.4</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="120"/>
-      <c r="B82" s="121"/>
-      <c r="C82" s="122" t="s">
+      <c r="A82" s="121"/>
+      <c r="B82" s="122"/>
+      <c r="C82" s="123" t="s">
         <v>176</v>
       </c>
       <c r="D82" s="89" t="s">
         <v>453</v>
       </c>
       <c r="E82" s="89"/>
-      <c r="F82" s="114" t="n">
+      <c r="F82" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R84</f>
         <v>33151761312.852</v>
       </c>
-      <c r="G82" s="114" t="n">
+      <c r="G82" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S84</f>
         <v>0</v>
       </c>
-      <c r="H82" s="114" t="n">
+      <c r="H82" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T84</f>
         <v>13875157393.188</v>
       </c>
-      <c r="I82" s="114" t="n">
+      <c r="I82" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U84</f>
         <v>47026918706.04</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="120"/>
-      <c r="B83" s="121"/>
-      <c r="C83" s="122" t="s">
+      <c r="A83" s="121"/>
+      <c r="B83" s="122"/>
+      <c r="C83" s="123" t="s">
         <v>178</v>
       </c>
       <c r="D83" s="89" t="s">
         <v>454</v>
       </c>
       <c r="E83" s="89"/>
-      <c r="F83" s="114" t="n">
+      <c r="F83" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R85</f>
         <v>6541142533.38</v>
       </c>
-      <c r="G83" s="114" t="n">
+      <c r="G83" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S85</f>
         <v>0</v>
       </c>
-      <c r="H83" s="114" t="n">
+      <c r="H83" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T85</f>
         <v>4281479749.092</v>
       </c>
-      <c r="I83" s="114" t="n">
+      <c r="I83" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U85</f>
         <v>10822622282.472</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="120"/>
-      <c r="B84" s="121"/>
-      <c r="C84" s="122" t="s">
+      <c r="A84" s="121"/>
+      <c r="B84" s="122"/>
+      <c r="C84" s="123" t="s">
         <v>180</v>
       </c>
       <c r="D84" s="89" t="s">
         <v>455</v>
       </c>
       <c r="E84" s="89"/>
-      <c r="F84" s="114" t="n">
+      <c r="F84" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R86</f>
         <v>8123901947.616</v>
       </c>
-      <c r="G84" s="114" t="n">
+      <c r="G84" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S86</f>
         <v>0</v>
       </c>
-      <c r="H84" s="114" t="n">
+      <c r="H84" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T86</f>
         <v>4757815448.568</v>
       </c>
-      <c r="I84" s="114" t="n">
+      <c r="I84" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U86</f>
         <v>12881717396.184</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="120"/>
-      <c r="B85" s="121"/>
-      <c r="C85" s="122" t="s">
+      <c r="A85" s="121"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="123" t="s">
         <v>182</v>
       </c>
       <c r="D85" s="89" t="s">
         <v>456</v>
       </c>
       <c r="E85" s="89"/>
-      <c r="F85" s="114" t="n">
+      <c r="F85" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R87</f>
         <v>23558621871.876</v>
       </c>
-      <c r="G85" s="114" t="n">
+      <c r="G85" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S87</f>
         <v>0</v>
       </c>
-      <c r="H85" s="114" t="n">
+      <c r="H85" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T87</f>
         <v>9164719269.888</v>
       </c>
-      <c r="I85" s="114" t="n">
+      <c r="I85" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U87</f>
         <v>32723341141.764</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="120"/>
-      <c r="B86" s="121"/>
-      <c r="C86" s="122" t="s">
+      <c r="A86" s="121"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="123" t="s">
         <v>184</v>
       </c>
       <c r="D86" s="89" t="s">
         <v>457</v>
       </c>
       <c r="E86" s="89"/>
-      <c r="F86" s="114" t="n">
+      <c r="F86" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R88</f>
         <v>11642847163.584</v>
       </c>
-      <c r="G86" s="114" t="n">
+      <c r="G86" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S88</f>
         <v>0</v>
       </c>
-      <c r="H86" s="114" t="n">
+      <c r="H86" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T88</f>
         <v>7173098789.22</v>
       </c>
-      <c r="I86" s="114" t="n">
+      <c r="I86" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U88</f>
         <v>18815945952.804</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="120"/>
-      <c r="B87" s="121"/>
-      <c r="C87" s="122" t="s">
+      <c r="A87" s="121"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="123" t="s">
         <v>186</v>
       </c>
       <c r="D87" s="89" t="s">
         <v>458</v>
       </c>
       <c r="E87" s="89"/>
-      <c r="F87" s="114" t="n">
+      <c r="F87" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R89</f>
         <v>15056405480.844</v>
       </c>
-      <c r="G87" s="114" t="n">
+      <c r="G87" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S89</f>
         <v>0</v>
       </c>
-      <c r="H87" s="114" t="n">
+      <c r="H87" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T89</f>
         <v>1711744316077.07</v>
       </c>
-      <c r="I87" s="114" t="n">
+      <c r="I87" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U89</f>
         <v>1726800721557.91</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="120"/>
-      <c r="B88" s="121"/>
-      <c r="C88" s="122" t="s">
+      <c r="A88" s="121"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="123" t="s">
         <v>188</v>
       </c>
       <c r="D88" s="89" t="s">
         <v>189</v>
       </c>
       <c r="E88" s="89"/>
-      <c r="F88" s="114" t="n">
+      <c r="F88" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R90</f>
         <v>5433434274345.17</v>
       </c>
-      <c r="G88" s="114" t="n">
+      <c r="G88" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S90</f>
         <v>0</v>
       </c>
-      <c r="H88" s="114" t="n">
+      <c r="H88" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T90</f>
         <v>118476836307.648</v>
       </c>
-      <c r="I88" s="114" t="n">
+      <c r="I88" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U90</f>
         <v>5551911110652.82</v>
       </c>
     </row>
     <row r="89" s="104" customFormat="true" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="115" t="s">
+      <c r="A89" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="B89" s="116" t="s">
+      <c r="B89" s="117" t="s">
         <v>459</v>
       </c>
-      <c r="C89" s="123"/>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="119" t="n">
+      <c r="C89" s="124"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="120" t="n">
         <f aca="false">SUM(F90:F95)</f>
         <v>1123506709675.9</v>
       </c>
-      <c r="G89" s="119" t="n">
+      <c r="G89" s="120" t="n">
         <f aca="false">SUM(G90:G95)</f>
         <v>16264934805.756</v>
       </c>
-      <c r="H89" s="119" t="n">
+      <c r="H89" s="120" t="n">
         <f aca="false">SUM(H90:H95)</f>
         <v>1610735494216.21</v>
       </c>
-      <c r="I89" s="119" t="n">
+      <c r="I89" s="120" t="n">
         <f aca="false">SUM(I90:I95)</f>
         <v>2750507138697.86</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="120"/>
-      <c r="B90" s="121"/>
-      <c r="C90" s="122" t="s">
+      <c r="A90" s="121"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="123" t="s">
         <v>192</v>
       </c>
       <c r="D90" s="89" t="s">
         <v>460</v>
       </c>
       <c r="E90" s="89"/>
-      <c r="F90" s="114" t="n">
+      <c r="F90" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R92</f>
         <v>118154622657.708</v>
       </c>
-      <c r="G90" s="114" t="n">
+      <c r="G90" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S92</f>
         <v>7447678809.48</v>
       </c>
-      <c r="H90" s="114" t="n">
+      <c r="H90" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T92</f>
         <v>0</v>
       </c>
-      <c r="I90" s="114" t="n">
+      <c r="I90" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U92</f>
         <v>125602301467.188</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="120"/>
-      <c r="B91" s="121"/>
-      <c r="C91" s="122" t="s">
+      <c r="A91" s="121"/>
+      <c r="B91" s="122"/>
+      <c r="C91" s="123" t="s">
         <v>194</v>
       </c>
       <c r="D91" s="89" t="s">
         <v>195</v>
       </c>
       <c r="E91" s="89"/>
-      <c r="F91" s="114" t="n">
+      <c r="F91" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R93</f>
         <v>929416823985.468</v>
       </c>
-      <c r="G91" s="114" t="n">
+      <c r="G91" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S93</f>
         <v>8739630319.056</v>
       </c>
-      <c r="H91" s="114" t="n">
+      <c r="H91" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T93</f>
         <v>1423434027164.6</v>
       </c>
-      <c r="I91" s="114" t="n">
+      <c r="I91" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U93</f>
         <v>2361590481469.13</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="120"/>
-      <c r="B92" s="121"/>
-      <c r="C92" s="122" t="s">
+      <c r="A92" s="121"/>
+      <c r="B92" s="122"/>
+      <c r="C92" s="123" t="s">
         <v>196</v>
       </c>
       <c r="D92" s="89" t="s">
         <v>461</v>
       </c>
       <c r="E92" s="89"/>
-      <c r="F92" s="114" t="n">
+      <c r="F92" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R94</f>
         <v>28753062094.848</v>
       </c>
-      <c r="G92" s="114" t="n">
+      <c r="G92" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S94</f>
         <v>5585641.152</v>
       </c>
-      <c r="H92" s="114" t="n">
+      <c r="H92" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T94</f>
         <v>22879468248</v>
       </c>
-      <c r="I92" s="114" t="n">
+      <c r="I92" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U94</f>
         <v>51638115984</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="120"/>
-      <c r="B93" s="121"/>
-      <c r="C93" s="122" t="s">
+      <c r="A93" s="121"/>
+      <c r="B93" s="122"/>
+      <c r="C93" s="123" t="s">
         <v>198</v>
       </c>
       <c r="D93" s="89" t="s">
         <v>199</v>
       </c>
       <c r="E93" s="89"/>
-      <c r="F93" s="114" t="n">
+      <c r="F93" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R95</f>
         <v>20168332548</v>
       </c>
-      <c r="G93" s="114" t="n">
+      <c r="G93" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S95</f>
         <v>72040036.068</v>
       </c>
-      <c r="H93" s="114" t="n">
+      <c r="H93" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T95</f>
         <v>21569325163.932</v>
       </c>
-      <c r="I93" s="114" t="n">
+      <c r="I93" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U95</f>
         <v>41809697748</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="120"/>
-      <c r="B94" s="121"/>
-      <c r="C94" s="122" t="s">
+      <c r="A94" s="121"/>
+      <c r="B94" s="122"/>
+      <c r="C94" s="123" t="s">
         <v>200</v>
       </c>
       <c r="D94" s="89" t="s">
         <v>201</v>
       </c>
       <c r="E94" s="89"/>
-      <c r="F94" s="114" t="n">
+      <c r="F94" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R96</f>
         <v>21905188539.78</v>
       </c>
-      <c r="G94" s="114" t="n">
+      <c r="G94" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S96</f>
         <v>0</v>
       </c>
-      <c r="H94" s="114" t="n">
+      <c r="H94" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T96</f>
         <v>93236539158.672</v>
       </c>
-      <c r="I94" s="114" t="n">
+      <c r="I94" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U96</f>
         <v>115141727698.452</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="120"/>
-      <c r="B95" s="121"/>
-      <c r="C95" s="122" t="s">
+      <c r="A95" s="121"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="123" t="s">
         <v>202</v>
       </c>
       <c r="D95" s="89" t="s">
         <v>462</v>
       </c>
       <c r="E95" s="89"/>
-      <c r="F95" s="114" t="n">
+      <c r="F95" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R97</f>
         <v>5108679850.092</v>
       </c>
-      <c r="G95" s="114" t="n">
+      <c r="G95" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S97</f>
         <v>0</v>
       </c>
-      <c r="H95" s="114" t="n">
+      <c r="H95" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T97</f>
         <v>49616134481.004</v>
       </c>
-      <c r="I95" s="114" t="n">
+      <c r="I95" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U97</f>
         <v>54724814331.096</v>
       </c>
     </row>
     <row r="96" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="115" t="s">
+      <c r="A96" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="116" t="s">
+      <c r="B96" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="C96" s="123"/>
-      <c r="D96" s="124"/>
-      <c r="E96" s="124"/>
-      <c r="F96" s="119" t="n">
+      <c r="C96" s="124"/>
+      <c r="D96" s="125"/>
+      <c r="E96" s="125"/>
+      <c r="F96" s="120" t="n">
         <f aca="false">SUM(F97:F104)</f>
         <v>1769671248959.8</v>
       </c>
-      <c r="G96" s="119" t="n">
+      <c r="G96" s="120" t="n">
         <f aca="false">SUM(G97:G104)</f>
         <v>3660696285645.67</v>
       </c>
-      <c r="H96" s="119" t="n">
+      <c r="H96" s="120" t="n">
         <f aca="false">SUM(H97:H104)</f>
         <v>12300004604828.3</v>
       </c>
-      <c r="I96" s="119" t="n">
+      <c r="I96" s="120" t="n">
         <f aca="false">SUM(I97:I104)</f>
         <v>17730372139433.8</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="120"/>
-      <c r="B97" s="121"/>
-      <c r="C97" s="122" t="s">
+      <c r="A97" s="121"/>
+      <c r="B97" s="122"/>
+      <c r="C97" s="123" t="s">
         <v>206</v>
       </c>
       <c r="D97" s="89" t="s">
         <v>207</v>
       </c>
       <c r="E97" s="89"/>
-      <c r="F97" s="114" t="n">
+      <c r="F97" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R99</f>
         <v>345701948215.26</v>
       </c>
-      <c r="G97" s="114" t="n">
+      <c r="G97" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S99</f>
         <v>14585377166.724</v>
       </c>
-      <c r="H97" s="114" t="n">
+      <c r="H97" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T99</f>
         <v>152818909135.62</v>
       </c>
-      <c r="I97" s="114" t="n">
+      <c r="I97" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U99</f>
         <v>513106234517.604</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="120"/>
-      <c r="B98" s="121"/>
-      <c r="C98" s="122" t="s">
+      <c r="A98" s="121"/>
+      <c r="B98" s="122"/>
+      <c r="C98" s="123" t="s">
         <v>208</v>
       </c>
       <c r="D98" s="89" t="s">
         <v>463</v>
       </c>
       <c r="E98" s="89"/>
-      <c r="F98" s="114" t="n">
+      <c r="F98" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R100</f>
         <v>253460492302.836</v>
       </c>
-      <c r="G98" s="114" t="n">
+      <c r="G98" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S100</f>
         <v>125353507902.168</v>
       </c>
-      <c r="H98" s="114" t="n">
+      <c r="H98" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T100</f>
         <v>4679429400390.11</v>
       </c>
-      <c r="I98" s="114" t="n">
+      <c r="I98" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U100</f>
         <v>5058243400595.11</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="120"/>
-      <c r="B99" s="121"/>
-      <c r="C99" s="122" t="s">
+      <c r="A99" s="121"/>
+      <c r="B99" s="122"/>
+      <c r="C99" s="123" t="s">
         <v>210</v>
       </c>
       <c r="D99" s="89" t="s">
         <v>464</v>
       </c>
       <c r="E99" s="89"/>
-      <c r="F99" s="114" t="n">
+      <c r="F99" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R101</f>
         <v>948152734448.556</v>
       </c>
-      <c r="G99" s="114" t="n">
+      <c r="G99" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S101</f>
         <v>3440311227.444</v>
       </c>
-      <c r="H99" s="114" t="n">
+      <c r="H99" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T101</f>
         <v>1458893651124</v>
       </c>
-      <c r="I99" s="114" t="n">
+      <c r="I99" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U101</f>
         <v>2410486696800</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="120"/>
-      <c r="B100" s="121"/>
-      <c r="C100" s="122" t="s">
+      <c r="A100" s="121"/>
+      <c r="B100" s="122"/>
+      <c r="C100" s="123" t="s">
         <v>212</v>
       </c>
       <c r="D100" s="89" t="s">
         <v>213</v>
       </c>
       <c r="E100" s="89"/>
-      <c r="F100" s="114" t="n">
+      <c r="F100" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R102</f>
         <v>124420292756.76</v>
       </c>
-      <c r="G100" s="114" t="n">
+      <c r="G100" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S102</f>
         <v>3516241994888.53</v>
       </c>
-      <c r="H100" s="114" t="n">
+      <c r="H100" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T102</f>
         <v>5813831160755.44</v>
       </c>
-      <c r="I100" s="114" t="n">
+      <c r="I100" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U102</f>
         <v>9454493448400.73</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="120"/>
-      <c r="B101" s="121"/>
-      <c r="C101" s="122" t="s">
+      <c r="A101" s="121"/>
+      <c r="B101" s="122"/>
+      <c r="C101" s="123" t="s">
         <v>214</v>
       </c>
       <c r="D101" s="89" t="s">
         <v>465</v>
       </c>
       <c r="E101" s="89"/>
-      <c r="F101" s="114" t="n">
+      <c r="F101" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R103</f>
         <v>16314996516</v>
       </c>
-      <c r="G101" s="114" t="n">
+      <c r="G101" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S103</f>
         <v>0</v>
       </c>
-      <c r="H101" s="114" t="n">
+      <c r="H101" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T103</f>
         <v>15218112000</v>
       </c>
-      <c r="I101" s="114" t="n">
+      <c r="I101" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U103</f>
         <v>31533108516</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="120"/>
-      <c r="B102" s="121"/>
-      <c r="C102" s="122" t="s">
+      <c r="A102" s="121"/>
+      <c r="B102" s="122"/>
+      <c r="C102" s="123" t="s">
         <v>216</v>
       </c>
       <c r="D102" s="89" t="s">
         <v>466</v>
       </c>
       <c r="E102" s="89"/>
-      <c r="F102" s="114" t="n">
+      <c r="F102" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R104</f>
         <v>1360959600</v>
       </c>
-      <c r="G102" s="114" t="n">
+      <c r="G102" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S104</f>
         <v>0</v>
       </c>
-      <c r="H102" s="114" t="n">
+      <c r="H102" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T104</f>
         <v>0</v>
       </c>
-      <c r="I102" s="114" t="n">
+      <c r="I102" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U104</f>
         <v>1360959600</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="120"/>
-      <c r="B103" s="121"/>
-      <c r="C103" s="122" t="s">
+      <c r="A103" s="121"/>
+      <c r="B103" s="122"/>
+      <c r="C103" s="123" t="s">
         <v>218</v>
       </c>
       <c r="D103" s="89" t="s">
         <v>219</v>
       </c>
       <c r="E103" s="89"/>
-      <c r="F103" s="114" t="n">
+      <c r="F103" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R105</f>
         <v>27476554944.384</v>
       </c>
-      <c r="G103" s="114" t="n">
+      <c r="G103" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S105</f>
         <v>74752475.616</v>
       </c>
-      <c r="H103" s="114" t="n">
+      <c r="H103" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T105</f>
         <v>160746768000</v>
       </c>
-      <c r="I103" s="114" t="n">
+      <c r="I103" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U105</f>
         <v>188298075420</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="120"/>
-      <c r="B104" s="121"/>
-      <c r="C104" s="122" t="s">
+      <c r="A104" s="121"/>
+      <c r="B104" s="122"/>
+      <c r="C104" s="123" t="s">
         <v>220</v>
       </c>
       <c r="D104" s="89" t="s">
         <v>221</v>
       </c>
       <c r="E104" s="89"/>
-      <c r="F104" s="114" t="n">
+      <c r="F104" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R106</f>
         <v>52783270176</v>
       </c>
-      <c r="G104" s="114" t="n">
+      <c r="G104" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S106</f>
         <v>1000341985.188</v>
       </c>
-      <c r="H104" s="114" t="n">
+      <c r="H104" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T106</f>
         <v>19066603423.14</v>
       </c>
-      <c r="I104" s="114" t="n">
+      <c r="I104" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U106</f>
         <v>72850215584.328</v>
       </c>
     </row>
     <row r="105" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="115" t="s">
+      <c r="A105" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="116" t="s">
+      <c r="B105" s="117" t="s">
         <v>467</v>
       </c>
-      <c r="C105" s="123"/>
-      <c r="D105" s="124"/>
-      <c r="E105" s="124"/>
-      <c r="F105" s="119" t="n">
+      <c r="C105" s="124"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
+      <c r="F105" s="120" t="n">
         <f aca="false">SUM(F106:F110)</f>
         <v>3702082014908</v>
       </c>
-      <c r="G105" s="119" t="n">
+      <c r="G105" s="120" t="n">
         <f aca="false">SUM(G106:G110)</f>
         <v>18749872160.292</v>
       </c>
-      <c r="H105" s="119" t="n">
+      <c r="H105" s="120" t="n">
         <f aca="false">SUM(H106:H110)</f>
         <v>635127820006.68</v>
       </c>
-      <c r="I105" s="119" t="n">
+      <c r="I105" s="120" t="n">
         <f aca="false">SUM(I106:I110)</f>
         <v>4355959707074.98</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="120"/>
-      <c r="B106" s="121"/>
-      <c r="C106" s="122" t="s">
+      <c r="A106" s="121"/>
+      <c r="B106" s="122"/>
+      <c r="C106" s="123" t="s">
         <v>224</v>
       </c>
       <c r="D106" s="89" t="s">
         <v>468</v>
       </c>
       <c r="E106" s="89"/>
-      <c r="F106" s="114" t="n">
+      <c r="F106" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R108</f>
         <v>1136295117205.25</v>
       </c>
-      <c r="G106" s="114" t="n">
+      <c r="G106" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S108</f>
         <v>17008890889.536</v>
       </c>
-      <c r="H106" s="114" t="n">
+      <c r="H106" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T108</f>
         <v>165958864520.904</v>
       </c>
-      <c r="I106" s="114" t="n">
+      <c r="I106" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U108</f>
         <v>1319262872615.69</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="120"/>
-      <c r="B107" s="121"/>
-      <c r="C107" s="122" t="s">
+      <c r="A107" s="121"/>
+      <c r="B107" s="122"/>
+      <c r="C107" s="123" t="s">
         <v>226</v>
       </c>
       <c r="D107" s="89" t="s">
         <v>469</v>
       </c>
       <c r="E107" s="89"/>
-      <c r="F107" s="114" t="n">
+      <c r="F107" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R109</f>
         <v>1148678824230.76</v>
       </c>
-      <c r="G107" s="114" t="n">
+      <c r="G107" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S109</f>
         <v>674474651.76</v>
       </c>
-      <c r="H107" s="114" t="n">
+      <c r="H107" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T109</f>
         <v>162076866332.472</v>
       </c>
-      <c r="I107" s="114" t="n">
+      <c r="I107" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U109</f>
         <v>1311430165214.99</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="120"/>
-      <c r="B108" s="121"/>
-      <c r="C108" s="122" t="s">
+      <c r="A108" s="121"/>
+      <c r="B108" s="122"/>
+      <c r="C108" s="123" t="s">
         <v>230</v>
       </c>
       <c r="D108" s="89" t="s">
         <v>470</v>
       </c>
       <c r="E108" s="89"/>
-      <c r="F108" s="114" t="n">
+      <c r="F108" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R111</f>
         <v>1219618589280</v>
       </c>
-      <c r="G108" s="114" t="n">
+      <c r="G108" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S111</f>
         <v>993898497.228</v>
       </c>
-      <c r="H108" s="114" t="n">
+      <c r="H108" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T111</f>
         <v>293503555923.396</v>
       </c>
-      <c r="I108" s="114" t="n">
+      <c r="I108" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U111</f>
         <v>1514116043700.62</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="120"/>
-      <c r="B109" s="121"/>
-      <c r="C109" s="122" t="s">
+      <c r="A109" s="121"/>
+      <c r="B109" s="122"/>
+      <c r="C109" s="123" t="s">
         <v>232</v>
       </c>
       <c r="D109" s="89" t="s">
         <v>471</v>
       </c>
       <c r="E109" s="89"/>
-      <c r="F109" s="114" t="n">
+      <c r="F109" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R112</f>
         <v>152704188000</v>
       </c>
-      <c r="G109" s="114" t="n">
+      <c r="G109" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S112</f>
         <v>28231900.788</v>
       </c>
-      <c r="H109" s="114" t="n">
+      <c r="H109" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T112</f>
         <v>0</v>
       </c>
-      <c r="I109" s="114" t="n">
+      <c r="I109" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U112</f>
         <v>152732419900.788</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="125"/>
-      <c r="B110" s="126"/>
-      <c r="C110" s="127" t="s">
+      <c r="A110" s="126"/>
+      <c r="B110" s="127"/>
+      <c r="C110" s="128" t="s">
         <v>336</v>
       </c>
-      <c r="D110" s="128" t="s">
+      <c r="D110" s="129" t="s">
         <v>472</v>
       </c>
-      <c r="E110" s="128"/>
-      <c r="F110" s="114" t="n">
+      <c r="E110" s="129"/>
+      <c r="F110" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R164</f>
         <v>44785296192</v>
       </c>
-      <c r="G110" s="114" t="n">
+      <c r="G110" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S164</f>
         <v>44376220.98</v>
       </c>
-      <c r="H110" s="114" t="n">
+      <c r="H110" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T164</f>
         <v>13588533229.908</v>
       </c>
-      <c r="I110" s="114" t="n">
+      <c r="I110" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U164</f>
         <v>58418205642.888</v>
       </c>
     </row>
     <row r="111" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="115" t="s">
+      <c r="A111" s="116" t="s">
         <v>234</v>
       </c>
-      <c r="B111" s="116" t="s">
+      <c r="B111" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="123"/>
-      <c r="D111" s="124"/>
-      <c r="E111" s="124"/>
-      <c r="F111" s="119" t="n">
+      <c r="C111" s="124"/>
+      <c r="D111" s="125"/>
+      <c r="E111" s="125"/>
+      <c r="F111" s="120" t="n">
         <f aca="false">SUM(F112)</f>
         <v>6571014450000</v>
       </c>
-      <c r="G111" s="119" t="n">
+      <c r="G111" s="120" t="n">
         <f aca="false">SUM(G112)</f>
         <v>327449014415.796</v>
       </c>
-      <c r="H111" s="119" t="n">
+      <c r="H111" s="120" t="n">
         <f aca="false">SUM(H112)</f>
         <v>793785556200</v>
       </c>
-      <c r="I111" s="119" t="n">
+      <c r="I111" s="120" t="n">
         <f aca="false">SUM(I112)</f>
         <v>7692249020615.8</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="120"/>
-      <c r="B112" s="121"/>
-      <c r="C112" s="122" t="s">
+      <c r="A112" s="121"/>
+      <c r="B112" s="122"/>
+      <c r="C112" s="123" t="s">
         <v>236</v>
       </c>
       <c r="D112" s="89" t="s">
         <v>237</v>
       </c>
       <c r="E112" s="89"/>
-      <c r="F112" s="114" t="n">
+      <c r="F112" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R114</f>
         <v>6571014450000</v>
       </c>
-      <c r="G112" s="114" t="n">
+      <c r="G112" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S114</f>
         <v>327449014415.796</v>
       </c>
-      <c r="H112" s="114" t="n">
+      <c r="H112" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T114</f>
         <v>793785556200</v>
       </c>
-      <c r="I112" s="114" t="n">
+      <c r="I112" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U114</f>
         <v>7692249020615.8</v>
       </c>
     </row>
     <row r="113" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="115" t="s">
+      <c r="A113" s="116" t="s">
         <v>238</v>
       </c>
-      <c r="B113" s="116" t="s">
+      <c r="B113" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="C113" s="123"/>
-      <c r="D113" s="124"/>
-      <c r="E113" s="124"/>
-      <c r="F113" s="119" t="n">
+      <c r="C113" s="124"/>
+      <c r="D113" s="125"/>
+      <c r="E113" s="125"/>
+      <c r="F113" s="120" t="n">
         <f aca="false">SUM(F114:F117)</f>
         <v>2362424023610.2</v>
       </c>
-      <c r="G113" s="119" t="n">
+      <c r="G113" s="120" t="n">
         <f aca="false">SUM(G114:G117)</f>
         <v>1387505734.524</v>
       </c>
-      <c r="H113" s="119" t="n">
+      <c r="H113" s="120" t="n">
         <f aca="false">SUM(H114:H117)</f>
         <v>213338892419.016</v>
       </c>
-      <c r="I113" s="119" t="n">
+      <c r="I113" s="120" t="n">
         <f aca="false">SUM(I114:I117)</f>
         <v>2577150421763.74</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="120"/>
-      <c r="B114" s="121"/>
-      <c r="C114" s="122" t="s">
+      <c r="A114" s="121"/>
+      <c r="B114" s="122"/>
+      <c r="C114" s="123" t="s">
         <v>240</v>
       </c>
       <c r="D114" s="89" t="s">
         <v>473</v>
       </c>
       <c r="E114" s="89"/>
-      <c r="F114" s="114" t="n">
+      <c r="F114" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R116</f>
         <v>2273802470312.1</v>
       </c>
-      <c r="G114" s="114" t="n">
+      <c r="G114" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S116</f>
         <v>1387505734.524</v>
       </c>
-      <c r="H114" s="114" t="n">
+      <c r="H114" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T116</f>
         <v>108709942674.06</v>
       </c>
-      <c r="I114" s="114" t="n">
+      <c r="I114" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U116</f>
         <v>2383899918720.68</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="120"/>
-      <c r="B115" s="121"/>
-      <c r="C115" s="122" t="s">
+      <c r="A115" s="121"/>
+      <c r="B115" s="122"/>
+      <c r="C115" s="123" t="s">
         <v>242</v>
       </c>
       <c r="D115" s="89" t="s">
         <v>474</v>
       </c>
       <c r="E115" s="89"/>
-      <c r="F115" s="114" t="n">
+      <c r="F115" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R117</f>
         <v>69427598160.648</v>
       </c>
-      <c r="G115" s="114" t="n">
+      <c r="G115" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S117</f>
         <v>0</v>
       </c>
-      <c r="H115" s="114" t="n">
+      <c r="H115" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T117</f>
         <v>104628949744.956</v>
       </c>
-      <c r="I115" s="114" t="n">
+      <c r="I115" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U117</f>
         <v>174056547905.604</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="120"/>
-      <c r="B116" s="121"/>
-      <c r="C116" s="122" t="s">
+      <c r="A116" s="121"/>
+      <c r="B116" s="122"/>
+      <c r="C116" s="123" t="s">
         <v>244</v>
       </c>
       <c r="D116" s="89" t="s">
         <v>475</v>
       </c>
       <c r="E116" s="89"/>
-      <c r="F116" s="114" t="n">
+      <c r="F116" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R118</f>
         <v>19193955137.448</v>
       </c>
-      <c r="G116" s="114" t="n">
+      <c r="G116" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S118</f>
         <v>0</v>
       </c>
-      <c r="H116" s="114" t="n">
+      <c r="H116" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T118</f>
         <v>0</v>
       </c>
-      <c r="I116" s="114" t="n">
+      <c r="I116" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U118</f>
         <v>19193955137.448</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="120"/>
-      <c r="B117" s="121"/>
-      <c r="C117" s="122" t="s">
+      <c r="A117" s="121"/>
+      <c r="B117" s="122"/>
+      <c r="C117" s="123" t="s">
         <v>246</v>
       </c>
       <c r="D117" s="89" t="s">
         <v>476</v>
       </c>
       <c r="E117" s="89"/>
-      <c r="F117" s="114" t="n">
+      <c r="F117" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R119</f>
         <v>0</v>
       </c>
-      <c r="G117" s="114" t="n">
+      <c r="G117" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S119</f>
         <v>0</v>
       </c>
-      <c r="H117" s="114" t="n">
+      <c r="H117" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T119</f>
         <v>0</v>
       </c>
-      <c r="I117" s="114" t="n">
+      <c r="I117" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U119</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="115" t="s">
+      <c r="A118" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="B118" s="116" t="s">
+      <c r="B118" s="117" t="s">
         <v>249</v>
       </c>
-      <c r="C118" s="123"/>
-      <c r="D118" s="124"/>
-      <c r="E118" s="124"/>
-      <c r="F118" s="119" t="n">
+      <c r="C118" s="124"/>
+      <c r="D118" s="125"/>
+      <c r="E118" s="125"/>
+      <c r="F118" s="120" t="n">
         <f aca="false">SUM(F119:F121)</f>
         <v>5393319313200</v>
       </c>
-      <c r="G118" s="119" t="n">
+      <c r="G118" s="120" t="n">
         <f aca="false">SUM(G119:G121)</f>
         <v>650985790914.732</v>
       </c>
-      <c r="H118" s="119" t="n">
+      <c r="H118" s="120" t="n">
         <f aca="false">SUM(H119:H121)</f>
         <v>261343305503.28</v>
       </c>
-      <c r="I118" s="119" t="n">
+      <c r="I118" s="120" t="n">
         <f aca="false">SUM(I119:I121)</f>
         <v>6305648409618.01</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="120"/>
-      <c r="B119" s="121"/>
-      <c r="C119" s="122" t="s">
+      <c r="A119" s="121"/>
+      <c r="B119" s="122"/>
+      <c r="C119" s="123" t="s">
         <v>250</v>
       </c>
       <c r="D119" s="89" t="s">
         <v>477</v>
       </c>
       <c r="E119" s="89"/>
-      <c r="F119" s="114" t="n">
+      <c r="F119" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R121</f>
         <v>5071629435600</v>
       </c>
-      <c r="G119" s="114" t="n">
+      <c r="G119" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S121</f>
         <v>650715604796.712</v>
       </c>
-      <c r="H119" s="114" t="n">
+      <c r="H119" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T121</f>
         <v>156742054560</v>
       </c>
-      <c r="I119" s="114" t="n">
+      <c r="I119" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U121</f>
         <v>5879087094956.71</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="120"/>
-      <c r="B120" s="121"/>
-      <c r="C120" s="122" t="s">
+      <c r="A120" s="121"/>
+      <c r="B120" s="122"/>
+      <c r="C120" s="123" t="s">
         <v>252</v>
       </c>
       <c r="D120" s="89" t="s">
         <v>253</v>
       </c>
       <c r="E120" s="89"/>
-      <c r="F120" s="114" t="n">
+      <c r="F120" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R122</f>
         <v>303012964800</v>
       </c>
-      <c r="G120" s="114" t="n">
+      <c r="G120" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S122</f>
         <v>270186118.02</v>
       </c>
-      <c r="H120" s="114" t="n">
+      <c r="H120" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T122</f>
         <v>80359787450.124</v>
       </c>
-      <c r="I120" s="114" t="n">
+      <c r="I120" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U122</f>
         <v>383642938368.144</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="125"/>
-      <c r="B121" s="126"/>
-      <c r="C121" s="127" t="s">
+      <c r="A121" s="126"/>
+      <c r="B121" s="127"/>
+      <c r="C121" s="128" t="s">
         <v>254</v>
       </c>
-      <c r="D121" s="128" t="s">
+      <c r="D121" s="129" t="s">
         <v>478</v>
       </c>
-      <c r="E121" s="128"/>
-      <c r="F121" s="114" t="n">
+      <c r="E121" s="129"/>
+      <c r="F121" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R123</f>
         <v>18676912800</v>
       </c>
-      <c r="G121" s="114" t="n">
+      <c r="G121" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S123</f>
         <v>0</v>
       </c>
-      <c r="H121" s="114" t="n">
+      <c r="H121" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T123</f>
         <v>24241463493.156</v>
       </c>
-      <c r="I121" s="114" t="n">
+      <c r="I121" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U123</f>
         <v>42918376293.156</v>
       </c>
     </row>
     <row r="122" s="104" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="120" t="n">
+      <c r="A122" s="121" t="n">
         <v>32</v>
       </c>
-      <c r="B122" s="121" t="s">
+      <c r="B122" s="122" t="s">
         <v>479</v>
       </c>
-      <c r="C122" s="122"/>
-      <c r="D122" s="129"/>
-      <c r="E122" s="129"/>
-      <c r="F122" s="119" t="n">
+      <c r="C122" s="123"/>
+      <c r="D122" s="130"/>
+      <c r="E122" s="130"/>
+      <c r="F122" s="120" t="n">
         <f aca="false">SUM(F123:F155)</f>
         <v>554151382256.472</v>
       </c>
-      <c r="G122" s="119" t="n">
+      <c r="G122" s="120" t="n">
         <f aca="false">SUM(G123:G155)</f>
         <v>30421513266.144</v>
       </c>
-      <c r="H122" s="119" t="n">
+      <c r="H122" s="120" t="n">
         <f aca="false">SUM(H123:H155)</f>
         <v>1611511817511.96</v>
       </c>
-      <c r="I122" s="119" t="n">
+      <c r="I122" s="120" t="n">
         <f aca="false">SUM(I123:I155)</f>
         <v>2196084713034.58</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="120"/>
-      <c r="B123" s="130"/>
-      <c r="C123" s="131" t="s">
+      <c r="A123" s="121"/>
+      <c r="B123" s="131"/>
+      <c r="C123" s="132" t="s">
         <v>258</v>
       </c>
       <c r="D123" s="89" t="s">
         <v>259</v>
       </c>
       <c r="E123" s="89"/>
-      <c r="F123" s="114" t="n">
+      <c r="F123" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R125</f>
         <v>301325655262.632</v>
       </c>
-      <c r="G123" s="114" t="n">
+      <c r="G123" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S125</f>
         <v>6056640855.72</v>
       </c>
-      <c r="H123" s="114" t="n">
+      <c r="H123" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T125</f>
         <v>378812385013.608</v>
       </c>
-      <c r="I123" s="114" t="n">
+      <c r="I123" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U125</f>
         <v>686194681131.96</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="120"/>
-      <c r="B124" s="130"/>
-      <c r="C124" s="131" t="s">
+      <c r="A124" s="121"/>
+      <c r="B124" s="131"/>
+      <c r="C124" s="132" t="s">
         <v>260</v>
       </c>
       <c r="D124" s="89" t="s">
         <v>480</v>
       </c>
       <c r="E124" s="89"/>
-      <c r="F124" s="114" t="n">
+      <c r="F124" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R126</f>
         <v>60007584000</v>
       </c>
-      <c r="G124" s="114" t="n">
+      <c r="G124" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S126</f>
         <v>143869666.668</v>
       </c>
-      <c r="H124" s="114" t="n">
+      <c r="H124" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T126</f>
         <v>76959873501.42</v>
       </c>
-      <c r="I124" s="114" t="n">
+      <c r="I124" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U126</f>
         <v>137111327168.088</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="120"/>
-      <c r="B125" s="130"/>
-      <c r="C125" s="131" t="s">
+      <c r="A125" s="121"/>
+      <c r="B125" s="131"/>
+      <c r="C125" s="132" t="s">
         <v>262</v>
       </c>
       <c r="D125" s="89" t="s">
         <v>263</v>
       </c>
       <c r="E125" s="89"/>
-      <c r="F125" s="114" t="n">
+      <c r="F125" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R127</f>
         <v>93886408980</v>
       </c>
-      <c r="G125" s="114" t="n">
+      <c r="G125" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S127</f>
         <v>0</v>
       </c>
-      <c r="H125" s="114" t="n">
+      <c r="H125" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T127</f>
         <v>1136489242380.49</v>
       </c>
-      <c r="I125" s="114" t="n">
+      <c r="I125" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U127</f>
         <v>1230375651360.49</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="120"/>
-      <c r="B126" s="130"/>
-      <c r="C126" s="131" t="s">
+      <c r="A126" s="121"/>
+      <c r="B126" s="131"/>
+      <c r="C126" s="132" t="s">
         <v>264</v>
       </c>
       <c r="D126" s="89" t="s">
         <v>481</v>
       </c>
       <c r="E126" s="89"/>
-      <c r="F126" s="114" t="n">
+      <c r="F126" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R128</f>
         <v>3604036800</v>
       </c>
-      <c r="G126" s="114" t="n">
+      <c r="G126" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S128</f>
         <v>1549099902.168</v>
       </c>
-      <c r="H126" s="114" t="n">
+      <c r="H126" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T128</f>
         <v>0</v>
       </c>
-      <c r="I126" s="114" t="n">
+      <c r="I126" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U128</f>
         <v>5153136702.168</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="120"/>
-      <c r="B127" s="130"/>
-      <c r="C127" s="131" t="s">
+      <c r="A127" s="121"/>
+      <c r="B127" s="131"/>
+      <c r="C127" s="132" t="s">
         <v>266</v>
       </c>
       <c r="D127" s="89" t="s">
         <v>482</v>
       </c>
       <c r="E127" s="89"/>
-      <c r="F127" s="114" t="n">
+      <c r="F127" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R129</f>
         <v>6043128000</v>
       </c>
-      <c r="G127" s="114" t="n">
+      <c r="G127" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S129</f>
         <v>237635367.06</v>
       </c>
-      <c r="H127" s="114" t="n">
+      <c r="H127" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T129</f>
         <v>0</v>
       </c>
-      <c r="I127" s="114" t="n">
+      <c r="I127" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U129</f>
         <v>6280763367.06</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="120"/>
-      <c r="B128" s="130"/>
-      <c r="C128" s="131" t="s">
+      <c r="A128" s="121"/>
+      <c r="B128" s="131"/>
+      <c r="C128" s="132" t="s">
         <v>268</v>
       </c>
       <c r="D128" s="89" t="s">
         <v>483</v>
       </c>
       <c r="E128" s="89"/>
-      <c r="F128" s="114" t="n">
+      <c r="F128" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R130</f>
         <v>4351729200</v>
       </c>
-      <c r="G128" s="114" t="n">
+      <c r="G128" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S130</f>
         <v>1322356242.48</v>
       </c>
-      <c r="H128" s="114" t="n">
+      <c r="H128" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T130</f>
         <v>0</v>
       </c>
-      <c r="I128" s="114" t="n">
+      <c r="I128" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U130</f>
         <v>5674085442.48</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="120"/>
-      <c r="B129" s="130"/>
-      <c r="C129" s="131" t="s">
+      <c r="A129" s="121"/>
+      <c r="B129" s="131"/>
+      <c r="C129" s="132" t="s">
         <v>270</v>
       </c>
       <c r="D129" s="89" t="s">
         <v>484</v>
       </c>
       <c r="E129" s="89"/>
-      <c r="F129" s="114" t="n">
+      <c r="F129" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R131</f>
         <v>4547088000</v>
       </c>
-      <c r="G129" s="114" t="n">
+      <c r="G129" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S131</f>
         <v>309806488.992</v>
       </c>
-      <c r="H129" s="114" t="n">
+      <c r="H129" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T131</f>
         <v>0</v>
       </c>
-      <c r="I129" s="114" t="n">
+      <c r="I129" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U131</f>
         <v>4856894488.992</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="120"/>
-      <c r="B130" s="130"/>
-      <c r="C130" s="131" t="s">
+      <c r="A130" s="121"/>
+      <c r="B130" s="131"/>
+      <c r="C130" s="132" t="s">
         <v>272</v>
       </c>
       <c r="D130" s="89" t="s">
         <v>485</v>
       </c>
       <c r="E130" s="89"/>
-      <c r="F130" s="114" t="n">
+      <c r="F130" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R132</f>
         <v>2437562400</v>
       </c>
-      <c r="G130" s="114" t="n">
+      <c r="G130" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S132</f>
         <v>0</v>
       </c>
-      <c r="H130" s="114" t="n">
+      <c r="H130" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T132</f>
         <v>4084959449.844</v>
       </c>
-      <c r="I130" s="114" t="n">
+      <c r="I130" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U132</f>
         <v>6522521849.844</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="120"/>
-      <c r="B131" s="121"/>
-      <c r="C131" s="122" t="s">
+      <c r="A131" s="121"/>
+      <c r="B131" s="122"/>
+      <c r="C131" s="123" t="s">
         <v>274</v>
       </c>
       <c r="D131" s="89" t="s">
         <v>486</v>
       </c>
       <c r="E131" s="89"/>
-      <c r="F131" s="114" t="n">
+      <c r="F131" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R133</f>
         <v>1462477380</v>
       </c>
-      <c r="G131" s="114" t="n">
+      <c r="G131" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S133</f>
         <v>0</v>
       </c>
-      <c r="H131" s="114" t="n">
+      <c r="H131" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T133</f>
         <v>0</v>
       </c>
-      <c r="I131" s="114" t="n">
+      <c r="I131" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U133</f>
         <v>1462477380</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="120"/>
-      <c r="B132" s="121"/>
-      <c r="C132" s="122" t="s">
+      <c r="A132" s="121"/>
+      <c r="B132" s="122"/>
+      <c r="C132" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D132" s="89" t="s">
         <v>487</v>
       </c>
       <c r="E132" s="89"/>
-      <c r="F132" s="114" t="n">
+      <c r="F132" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R134</f>
         <v>2532308688</v>
       </c>
-      <c r="G132" s="114" t="n">
+      <c r="G132" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S134</f>
         <v>5071509147.432</v>
       </c>
-      <c r="H132" s="114" t="n">
+      <c r="H132" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T134</f>
         <v>0</v>
       </c>
-      <c r="I132" s="114" t="n">
+      <c r="I132" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U134</f>
         <v>7603817835.432</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="120"/>
-      <c r="B133" s="121"/>
-      <c r="C133" s="122" t="s">
+      <c r="A133" s="121"/>
+      <c r="B133" s="122"/>
+      <c r="C133" s="123" t="s">
         <v>278</v>
       </c>
       <c r="D133" s="89" t="s">
         <v>488</v>
       </c>
       <c r="E133" s="89"/>
-      <c r="F133" s="114" t="n">
+      <c r="F133" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R135</f>
         <v>3041875200</v>
       </c>
-      <c r="G133" s="114" t="n">
+      <c r="G133" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S135</f>
         <v>602707497.756</v>
       </c>
-      <c r="H133" s="114" t="n">
+      <c r="H133" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T135</f>
         <v>0</v>
       </c>
-      <c r="I133" s="114" t="n">
+      <c r="I133" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U135</f>
         <v>3644582697.756</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="120"/>
-      <c r="B134" s="130"/>
-      <c r="C134" s="131" t="s">
+      <c r="A134" s="121"/>
+      <c r="B134" s="131"/>
+      <c r="C134" s="132" t="s">
         <v>280</v>
       </c>
       <c r="D134" s="89" t="s">
         <v>489</v>
       </c>
       <c r="E134" s="89"/>
-      <c r="F134" s="114" t="n">
+      <c r="F134" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R136</f>
         <v>3034686564</v>
       </c>
-      <c r="G134" s="114" t="n">
+      <c r="G134" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S136</f>
         <v>0</v>
       </c>
-      <c r="H134" s="114" t="n">
+      <c r="H134" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T136</f>
         <v>0</v>
       </c>
-      <c r="I134" s="114" t="n">
+      <c r="I134" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U136</f>
         <v>3034686564</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="120"/>
-      <c r="B135" s="130"/>
-      <c r="C135" s="131" t="s">
+      <c r="A135" s="121"/>
+      <c r="B135" s="131"/>
+      <c r="C135" s="132" t="s">
         <v>282</v>
       </c>
       <c r="D135" s="89" t="s">
         <v>490</v>
       </c>
       <c r="E135" s="89"/>
-      <c r="F135" s="114" t="n">
+      <c r="F135" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R137</f>
         <v>4568163600</v>
       </c>
-      <c r="G135" s="114" t="n">
+      <c r="G135" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S137</f>
         <v>2892450384.096</v>
       </c>
-      <c r="H135" s="114" t="n">
+      <c r="H135" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T137</f>
         <v>0</v>
       </c>
-      <c r="I135" s="114" t="n">
+      <c r="I135" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U137</f>
         <v>7460613984.096</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="120"/>
-      <c r="B136" s="130"/>
-      <c r="C136" s="131" t="s">
+      <c r="A136" s="121"/>
+      <c r="B136" s="131"/>
+      <c r="C136" s="132" t="s">
         <v>284</v>
       </c>
       <c r="D136" s="89" t="s">
         <v>491</v>
       </c>
       <c r="E136" s="89"/>
-      <c r="F136" s="114" t="n">
+      <c r="F136" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R138</f>
         <v>4380339600</v>
       </c>
-      <c r="G136" s="114" t="n">
+      <c r="G136" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S138</f>
         <v>0</v>
       </c>
-      <c r="H136" s="114" t="n">
+      <c r="H136" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T138</f>
         <v>2075448760.476</v>
       </c>
-      <c r="I136" s="114" t="n">
+      <c r="I136" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U138</f>
         <v>6455788360.476</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="120"/>
-      <c r="B137" s="130"/>
-      <c r="C137" s="131" t="s">
+      <c r="A137" s="121"/>
+      <c r="B137" s="131"/>
+      <c r="C137" s="132" t="s">
         <v>286</v>
       </c>
       <c r="D137" s="89" t="s">
         <v>492</v>
       </c>
       <c r="E137" s="89"/>
-      <c r="F137" s="114" t="n">
+      <c r="F137" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R139</f>
         <v>3467100000</v>
       </c>
-      <c r="G137" s="114" t="n">
+      <c r="G137" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S139</f>
         <v>563679600.12</v>
       </c>
-      <c r="H137" s="114" t="n">
+      <c r="H137" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T139</f>
         <v>0</v>
       </c>
-      <c r="I137" s="114" t="n">
+      <c r="I137" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U139</f>
         <v>4030779600.12</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="120"/>
-      <c r="B138" s="130"/>
-      <c r="C138" s="131" t="s">
+      <c r="A138" s="121"/>
+      <c r="B138" s="131"/>
+      <c r="C138" s="132" t="s">
         <v>288</v>
       </c>
       <c r="D138" s="89" t="s">
         <v>493</v>
       </c>
       <c r="E138" s="89"/>
-      <c r="F138" s="114" t="n">
+      <c r="F138" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R140</f>
         <v>6867588000</v>
       </c>
-      <c r="G138" s="114" t="n">
+      <c r="G138" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S140</f>
         <v>361153508.352</v>
       </c>
-      <c r="H138" s="114" t="n">
+      <c r="H138" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T140</f>
         <v>0</v>
       </c>
-      <c r="I138" s="114" t="n">
+      <c r="I138" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U140</f>
         <v>7228741508.352</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="120"/>
-      <c r="B139" s="121"/>
-      <c r="C139" s="122" t="s">
+      <c r="A139" s="121"/>
+      <c r="B139" s="122"/>
+      <c r="C139" s="123" t="s">
         <v>290</v>
       </c>
       <c r="D139" s="89" t="s">
         <v>494</v>
       </c>
       <c r="E139" s="89"/>
-      <c r="F139" s="114" t="n">
+      <c r="F139" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R141</f>
         <v>5727568828.8</v>
       </c>
-      <c r="G139" s="114" t="n">
+      <c r="G139" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S141</f>
         <v>108520637.316</v>
       </c>
-      <c r="H139" s="114" t="n">
+      <c r="H139" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T141</f>
         <v>0</v>
       </c>
-      <c r="I139" s="114" t="n">
+      <c r="I139" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U141</f>
         <v>5836089466.116</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="120"/>
-      <c r="B140" s="130"/>
-      <c r="C140" s="131" t="s">
+      <c r="A140" s="121"/>
+      <c r="B140" s="131"/>
+      <c r="C140" s="132" t="s">
         <v>292</v>
       </c>
       <c r="D140" s="89" t="s">
         <v>495</v>
       </c>
       <c r="E140" s="89"/>
-      <c r="F140" s="114" t="n">
+      <c r="F140" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R142</f>
         <v>2684682000</v>
       </c>
-      <c r="G140" s="114" t="n">
+      <c r="G140" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S142</f>
         <v>587586594.504</v>
       </c>
-      <c r="H140" s="114" t="n">
+      <c r="H140" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T142</f>
         <v>0</v>
       </c>
-      <c r="I140" s="114" t="n">
+      <c r="I140" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U142</f>
         <v>3272268594.504</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="120"/>
-      <c r="B141" s="130"/>
-      <c r="C141" s="131" t="s">
+      <c r="A141" s="121"/>
+      <c r="B141" s="131"/>
+      <c r="C141" s="132" t="s">
         <v>294</v>
       </c>
       <c r="D141" s="89" t="s">
         <v>496</v>
       </c>
       <c r="E141" s="89"/>
-      <c r="F141" s="114" t="n">
+      <c r="F141" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R143</f>
         <v>2797704000</v>
       </c>
-      <c r="G141" s="114" t="n">
+      <c r="G141" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S143</f>
         <v>211753718.904</v>
       </c>
-      <c r="H141" s="114" t="n">
+      <c r="H141" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T143</f>
         <v>0</v>
       </c>
-      <c r="I141" s="114" t="n">
+      <c r="I141" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U143</f>
         <v>3009457718.904</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="120"/>
-      <c r="B142" s="130"/>
-      <c r="C142" s="131" t="s">
+      <c r="A142" s="121"/>
+      <c r="B142" s="131"/>
+      <c r="C142" s="132" t="s">
         <v>296</v>
       </c>
       <c r="D142" s="89" t="s">
         <v>497</v>
       </c>
       <c r="E142" s="89"/>
-      <c r="F142" s="114" t="n">
+      <c r="F142" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R144</f>
         <v>2746380000</v>
       </c>
-      <c r="G142" s="114" t="n">
+      <c r="G142" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S144</f>
         <v>0</v>
       </c>
-      <c r="H142" s="114" t="n">
+      <c r="H142" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T144</f>
         <v>0</v>
       </c>
-      <c r="I142" s="114" t="n">
+      <c r="I142" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U144</f>
         <v>2746380000</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="120"/>
-      <c r="B143" s="121"/>
-      <c r="C143" s="122" t="s">
+      <c r="A143" s="121"/>
+      <c r="B143" s="122"/>
+      <c r="C143" s="123" t="s">
         <v>298</v>
       </c>
       <c r="D143" s="89" t="s">
         <v>498</v>
       </c>
       <c r="E143" s="89"/>
-      <c r="F143" s="114" t="n">
+      <c r="F143" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R145</f>
         <v>2980068000</v>
       </c>
-      <c r="G143" s="114" t="n">
+      <c r="G143" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S145</f>
         <v>0</v>
       </c>
-      <c r="H143" s="114" t="n">
+      <c r="H143" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T145</f>
         <v>0</v>
       </c>
-      <c r="I143" s="114" t="n">
+      <c r="I143" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U145</f>
         <v>2980068000</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="120"/>
-      <c r="B144" s="130"/>
-      <c r="C144" s="131" t="s">
+      <c r="A144" s="121"/>
+      <c r="B144" s="131"/>
+      <c r="C144" s="132" t="s">
         <v>300</v>
       </c>
       <c r="D144" s="89" t="s">
         <v>499</v>
       </c>
       <c r="E144" s="89"/>
-      <c r="F144" s="114" t="n">
+      <c r="F144" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R146</f>
         <v>2696738684.64</v>
       </c>
-      <c r="G144" s="114" t="n">
+      <c r="G144" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S146</f>
         <v>41534204.712</v>
       </c>
-      <c r="H144" s="114" t="n">
+      <c r="H144" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T146</f>
         <v>0</v>
       </c>
-      <c r="I144" s="114" t="n">
+      <c r="I144" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U146</f>
         <v>2738272889.352</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="120"/>
-      <c r="B145" s="130"/>
-      <c r="C145" s="131" t="s">
+      <c r="A145" s="121"/>
+      <c r="B145" s="131"/>
+      <c r="C145" s="132" t="s">
         <v>302</v>
       </c>
       <c r="D145" s="89" t="s">
         <v>500</v>
       </c>
       <c r="E145" s="89"/>
-      <c r="F145" s="114" t="n">
+      <c r="F145" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R147</f>
         <v>2544360000</v>
       </c>
-      <c r="G145" s="114" t="n">
+      <c r="G145" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S147</f>
         <v>117522943.356</v>
       </c>
-      <c r="H145" s="114" t="n">
+      <c r="H145" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T147</f>
         <v>0</v>
       </c>
-      <c r="I145" s="114" t="n">
+      <c r="I145" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U147</f>
         <v>2661882943.356</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="120"/>
-      <c r="B146" s="121"/>
-      <c r="C146" s="122" t="s">
+      <c r="A146" s="121"/>
+      <c r="B146" s="122"/>
+      <c r="C146" s="123" t="s">
         <v>304</v>
       </c>
       <c r="D146" s="89" t="s">
         <v>501</v>
       </c>
       <c r="E146" s="89"/>
-      <c r="F146" s="114" t="n">
+      <c r="F146" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R148</f>
         <v>2982252000</v>
       </c>
-      <c r="G146" s="114" t="n">
+      <c r="G146" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S148</f>
         <v>0</v>
       </c>
-      <c r="H146" s="114" t="n">
+      <c r="H146" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T148</f>
         <v>13089908406.12</v>
       </c>
-      <c r="I146" s="114" t="n">
+      <c r="I146" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U148</f>
         <v>16072160406.12</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="120"/>
-      <c r="B147" s="130"/>
-      <c r="C147" s="131" t="s">
+      <c r="A147" s="121"/>
+      <c r="B147" s="131"/>
+      <c r="C147" s="132" t="s">
         <v>306</v>
       </c>
       <c r="D147" s="89" t="s">
         <v>502</v>
       </c>
       <c r="E147" s="89"/>
-      <c r="F147" s="114" t="n">
+      <c r="F147" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R149</f>
         <v>2819693604</v>
       </c>
-      <c r="G147" s="114" t="n">
+      <c r="G147" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S149</f>
         <v>288025997.532</v>
       </c>
-      <c r="H147" s="114" t="n">
+      <c r="H147" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T149</f>
         <v>0</v>
       </c>
-      <c r="I147" s="114" t="n">
+      <c r="I147" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U149</f>
         <v>3107719601.532</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="120"/>
-      <c r="B148" s="121"/>
-      <c r="C148" s="122" t="s">
+      <c r="A148" s="121"/>
+      <c r="B148" s="122"/>
+      <c r="C148" s="123" t="s">
         <v>308</v>
       </c>
       <c r="D148" s="89" t="s">
         <v>503</v>
       </c>
       <c r="E148" s="89"/>
-      <c r="F148" s="114" t="n">
+      <c r="F148" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R150</f>
         <v>3081624000</v>
       </c>
-      <c r="G148" s="114" t="n">
+      <c r="G148" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S150</f>
         <v>7144502347.164</v>
       </c>
-      <c r="H148" s="114" t="n">
+      <c r="H148" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T150</f>
         <v>0</v>
       </c>
-      <c r="I148" s="114" t="n">
+      <c r="I148" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U150</f>
         <v>10226126347.164</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="120"/>
-      <c r="B149" s="121"/>
-      <c r="C149" s="122" t="s">
+      <c r="A149" s="121"/>
+      <c r="B149" s="122"/>
+      <c r="C149" s="123" t="s">
         <v>310</v>
       </c>
       <c r="D149" s="89" t="s">
         <v>504</v>
       </c>
       <c r="E149" s="89"/>
-      <c r="F149" s="114" t="n">
+      <c r="F149" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R151</f>
         <v>2413943750.4</v>
       </c>
-      <c r="G149" s="114" t="n">
+      <c r="G149" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S151</f>
         <v>0</v>
       </c>
-      <c r="H149" s="114" t="n">
+      <c r="H149" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T151</f>
         <v>0</v>
       </c>
-      <c r="I149" s="114" t="n">
+      <c r="I149" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U151</f>
         <v>2413943750.4</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="120"/>
-      <c r="B150" s="121"/>
-      <c r="C150" s="122" t="s">
+      <c r="A150" s="121"/>
+      <c r="B150" s="122"/>
+      <c r="C150" s="123" t="s">
         <v>312</v>
       </c>
       <c r="D150" s="89" t="s">
         <v>505</v>
       </c>
       <c r="E150" s="89"/>
-      <c r="F150" s="114" t="n">
+      <c r="F150" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R152</f>
         <v>2733166800</v>
       </c>
-      <c r="G150" s="114" t="n">
+      <c r="G150" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S152</f>
         <v>1458548130.312</v>
       </c>
-      <c r="H150" s="114" t="n">
+      <c r="H150" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T152</f>
         <v>0</v>
       </c>
-      <c r="I150" s="114" t="n">
+      <c r="I150" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U152</f>
         <v>4191714930.312</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="120"/>
-      <c r="B151" s="130"/>
-      <c r="C151" s="131" t="s">
+      <c r="A151" s="121"/>
+      <c r="B151" s="131"/>
+      <c r="C151" s="132" t="s">
         <v>314</v>
       </c>
       <c r="D151" s="89" t="s">
         <v>506</v>
       </c>
       <c r="E151" s="89"/>
-      <c r="F151" s="114" t="n">
+      <c r="F151" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R153</f>
         <v>2707068000</v>
       </c>
-      <c r="G151" s="114" t="n">
+      <c r="G151" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S153</f>
         <v>799961619.912</v>
       </c>
-      <c r="H151" s="114" t="n">
+      <c r="H151" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T153</f>
         <v>0</v>
       </c>
-      <c r="I151" s="114" t="n">
+      <c r="I151" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U153</f>
         <v>3507029619.912</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="120"/>
-      <c r="B152" s="130"/>
-      <c r="C152" s="131" t="s">
+      <c r="A152" s="121"/>
+      <c r="B152" s="131"/>
+      <c r="C152" s="132" t="s">
         <v>316</v>
       </c>
       <c r="D152" s="89" t="s">
         <v>507</v>
       </c>
       <c r="E152" s="89"/>
-      <c r="F152" s="114" t="n">
+      <c r="F152" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R154</f>
         <v>2639364000</v>
       </c>
-      <c r="G152" s="114" t="n">
+      <c r="G152" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S154</f>
         <v>0</v>
       </c>
-      <c r="H152" s="114" t="n">
+      <c r="H152" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T154</f>
         <v>0</v>
       </c>
-      <c r="I152" s="114" t="n">
+      <c r="I152" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U154</f>
         <v>2639364000</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="120"/>
-      <c r="B153" s="121"/>
-      <c r="C153" s="122" t="s">
+      <c r="A153" s="121"/>
+      <c r="B153" s="122"/>
+      <c r="C153" s="123" t="s">
         <v>318</v>
       </c>
       <c r="D153" s="89" t="s">
         <v>508</v>
       </c>
       <c r="E153" s="89"/>
-      <c r="F153" s="114" t="n">
+      <c r="F153" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R155</f>
         <v>917907900</v>
       </c>
-      <c r="G153" s="114" t="n">
+      <c r="G153" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S155</f>
         <v>0</v>
       </c>
-      <c r="H153" s="114" t="n">
+      <c r="H153" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T155</f>
         <v>0</v>
       </c>
-      <c r="I153" s="114" t="n">
+      <c r="I153" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U155</f>
         <v>917907900</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="120"/>
-      <c r="B154" s="130"/>
-      <c r="C154" s="131" t="s">
+      <c r="A154" s="121"/>
+      <c r="B154" s="131"/>
+      <c r="C154" s="132" t="s">
         <v>320</v>
       </c>
       <c r="D154" s="89" t="s">
         <v>509</v>
       </c>
       <c r="E154" s="89"/>
-      <c r="F154" s="114" t="n">
+      <c r="F154" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R156</f>
         <v>2931397014</v>
       </c>
-      <c r="G154" s="114" t="n">
+      <c r="G154" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S156</f>
         <v>552648411.588</v>
       </c>
-      <c r="H154" s="114" t="n">
+      <c r="H154" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T156</f>
         <v>0</v>
       </c>
-      <c r="I154" s="114" t="n">
+      <c r="I154" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U156</f>
         <v>3484045425.588</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="120"/>
-      <c r="B155" s="121"/>
-      <c r="C155" s="122" t="s">
+      <c r="A155" s="121"/>
+      <c r="B155" s="122"/>
+      <c r="C155" s="123" t="s">
         <v>322</v>
       </c>
       <c r="D155" s="89" t="s">
         <v>510</v>
       </c>
       <c r="E155" s="89"/>
-      <c r="F155" s="114" t="n">
+      <c r="F155" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R157</f>
         <v>3189732000</v>
       </c>
-      <c r="G155" s="114" t="n">
+      <c r="G155" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S157</f>
         <v>0</v>
       </c>
-      <c r="H155" s="114" t="n">
+      <c r="H155" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T157</f>
         <v>0</v>
       </c>
-      <c r="I155" s="114" t="n">
+      <c r="I155" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U157</f>
         <v>3189732000</v>
       </c>
     </row>
     <row r="156" s="104" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="115" t="s">
+      <c r="A156" s="116" t="s">
         <v>324</v>
       </c>
-      <c r="B156" s="116" t="s">
+      <c r="B156" s="117" t="s">
         <v>511</v>
       </c>
-      <c r="C156" s="123"/>
-      <c r="D156" s="124"/>
-      <c r="E156" s="124"/>
-      <c r="F156" s="119" t="n">
+      <c r="C156" s="124"/>
+      <c r="D156" s="125"/>
+      <c r="E156" s="125"/>
+      <c r="F156" s="120" t="n">
         <f aca="false">SUM(F157:F160)</f>
         <v>324249879166.668</v>
       </c>
-      <c r="G156" s="119" t="n">
+      <c r="G156" s="120" t="n">
         <f aca="false">SUM(G157:G160)</f>
         <v>0</v>
       </c>
-      <c r="H156" s="119" t="n">
+      <c r="H156" s="120" t="n">
         <f aca="false">SUM(H157:H160)</f>
         <v>551071719592.212</v>
       </c>
-      <c r="I156" s="119" t="n">
+      <c r="I156" s="120" t="n">
         <f aca="false">SUM(I157:I160)</f>
         <v>875321598758.88</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="120"/>
-      <c r="B157" s="121"/>
-      <c r="C157" s="122" t="s">
+      <c r="A157" s="121"/>
+      <c r="B157" s="122"/>
+      <c r="C157" s="123" t="s">
         <v>326</v>
       </c>
       <c r="D157" s="89" t="s">
         <v>512</v>
       </c>
       <c r="E157" s="89"/>
-      <c r="F157" s="114" t="n">
+      <c r="F157" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R159</f>
         <v>282745528523.64</v>
       </c>
-      <c r="G157" s="114" t="n">
+      <c r="G157" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S159</f>
         <v>0</v>
       </c>
-      <c r="H157" s="114" t="n">
+      <c r="H157" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T159</f>
         <v>506242086796.992</v>
       </c>
-      <c r="I157" s="114" t="n">
+      <c r="I157" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U159</f>
         <v>788987615320.632</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="120"/>
-      <c r="B158" s="121"/>
-      <c r="C158" s="122" t="s">
+      <c r="A158" s="121"/>
+      <c r="B158" s="122"/>
+      <c r="C158" s="123" t="s">
         <v>328</v>
       </c>
       <c r="D158" s="89" t="s">
         <v>513</v>
       </c>
       <c r="E158" s="89"/>
-      <c r="F158" s="114" t="n">
+      <c r="F158" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R160</f>
         <v>18079113952.536</v>
       </c>
-      <c r="G158" s="114" t="n">
+      <c r="G158" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S160</f>
         <v>0</v>
       </c>
-      <c r="H158" s="114" t="n">
+      <c r="H158" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T160</f>
         <v>12354478553.508</v>
       </c>
-      <c r="I158" s="114" t="n">
+      <c r="I158" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U160</f>
         <v>30433592506.044</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="120"/>
-      <c r="B159" s="121"/>
-      <c r="C159" s="122" t="s">
+      <c r="A159" s="121"/>
+      <c r="B159" s="122"/>
+      <c r="C159" s="123" t="s">
         <v>330</v>
       </c>
       <c r="D159" s="89" t="s">
         <v>514</v>
       </c>
       <c r="E159" s="89"/>
-      <c r="F159" s="114" t="n">
+      <c r="F159" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R161</f>
         <v>13145719089.048</v>
       </c>
-      <c r="G159" s="114" t="n">
+      <c r="G159" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S161</f>
         <v>0</v>
       </c>
-      <c r="H159" s="114" t="n">
+      <c r="H159" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T161</f>
         <v>26303140969.56</v>
       </c>
-      <c r="I159" s="114" t="n">
+      <c r="I159" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U161</f>
         <v>39448860058.608</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="120"/>
-      <c r="B160" s="121"/>
-      <c r="C160" s="122" t="s">
+      <c r="A160" s="121"/>
+      <c r="B160" s="122"/>
+      <c r="C160" s="123" t="s">
         <v>332</v>
       </c>
       <c r="D160" s="89" t="s">
         <v>333</v>
       </c>
       <c r="E160" s="89"/>
-      <c r="F160" s="114" t="n">
+      <c r="F160" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R162</f>
         <v>10279517601.444</v>
       </c>
-      <c r="G160" s="114" t="n">
+      <c r="G160" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S162</f>
         <v>0</v>
       </c>
-      <c r="H160" s="114" t="n">
+      <c r="H160" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T162</f>
         <v>6172013272.152</v>
       </c>
-      <c r="I160" s="114" t="n">
+      <c r="I160" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U162</f>
         <v>16451530873.596</v>
       </c>
     </row>
     <row r="161" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="115" t="s">
+      <c r="A161" s="116" t="s">
         <v>338</v>
       </c>
-      <c r="B161" s="116" t="s">
+      <c r="B161" s="117" t="s">
         <v>515</v>
       </c>
-      <c r="C161" s="123"/>
-      <c r="D161" s="124"/>
-      <c r="E161" s="124"/>
-      <c r="F161" s="119" t="n">
+      <c r="C161" s="124"/>
+      <c r="D161" s="125"/>
+      <c r="E161" s="125"/>
+      <c r="F161" s="120" t="n">
         <f aca="false">SUM(F162:F166)</f>
         <v>826118294531.712</v>
       </c>
-      <c r="G161" s="119" t="n">
+      <c r="G161" s="120" t="n">
         <f aca="false">SUM(G162:G166)</f>
         <v>3615553339.944</v>
       </c>
-      <c r="H161" s="119" t="n">
+      <c r="H161" s="120" t="n">
         <f aca="false">SUM(H162:H166)</f>
         <v>709378587744.372</v>
       </c>
-      <c r="I161" s="119" t="n">
+      <c r="I161" s="120" t="n">
         <f aca="false">SUM(I162:I166)</f>
         <v>1539112435616.03</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="120"/>
-      <c r="B162" s="121"/>
-      <c r="C162" s="122" t="s">
+      <c r="A162" s="121"/>
+      <c r="B162" s="122"/>
+      <c r="C162" s="123" t="s">
         <v>340</v>
       </c>
       <c r="D162" s="89" t="s">
         <v>341</v>
       </c>
       <c r="E162" s="89"/>
-      <c r="F162" s="114" t="n">
+      <c r="F162" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R166</f>
         <v>472626381864</v>
       </c>
-      <c r="G162" s="114" t="n">
+      <c r="G162" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S166</f>
         <v>1108665032.748</v>
       </c>
-      <c r="H162" s="114" t="n">
+      <c r="H162" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T166</f>
         <v>488757611742.036</v>
       </c>
-      <c r="I162" s="114" t="n">
+      <c r="I162" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U166</f>
         <v>962492658638.784</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="120"/>
-      <c r="B163" s="121"/>
-      <c r="C163" s="122" t="s">
+      <c r="A163" s="121"/>
+      <c r="B163" s="122"/>
+      <c r="C163" s="123" t="s">
         <v>342</v>
       </c>
       <c r="D163" s="89" t="s">
         <v>343</v>
       </c>
       <c r="E163" s="89"/>
-      <c r="F163" s="114" t="n">
+      <c r="F163" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R167</f>
         <v>171920555168.544</v>
       </c>
-      <c r="G163" s="114" t="n">
+      <c r="G163" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S167</f>
         <v>441935225.004</v>
       </c>
-      <c r="H163" s="114" t="n">
+      <c r="H163" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T167</f>
         <v>32626767478.032</v>
       </c>
-      <c r="I163" s="114" t="n">
+      <c r="I163" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U167</f>
         <v>204989257871.58</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="120"/>
-      <c r="B164" s="121"/>
-      <c r="C164" s="122" t="s">
+      <c r="A164" s="121"/>
+      <c r="B164" s="122"/>
+      <c r="C164" s="123" t="s">
         <v>344</v>
       </c>
       <c r="D164" s="89" t="s">
         <v>345</v>
       </c>
       <c r="E164" s="89"/>
-      <c r="F164" s="114" t="n">
+      <c r="F164" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R168</f>
         <v>152037309060</v>
       </c>
-      <c r="G164" s="114" t="n">
+      <c r="G164" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S168</f>
         <v>1806195556.62</v>
       </c>
-      <c r="H164" s="114" t="n">
+      <c r="H164" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T168</f>
         <v>160201180318.452</v>
       </c>
-      <c r="I164" s="114" t="n">
+      <c r="I164" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U168</f>
         <v>314044684935.072</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="120"/>
-      <c r="B165" s="121"/>
-      <c r="C165" s="122" t="s">
+      <c r="A165" s="121"/>
+      <c r="B165" s="122"/>
+      <c r="C165" s="123" t="s">
         <v>346</v>
       </c>
       <c r="D165" s="89" t="s">
         <v>347</v>
       </c>
       <c r="E165" s="89"/>
-      <c r="F165" s="114" t="n">
+      <c r="F165" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R169</f>
         <v>8419139715.168</v>
       </c>
-      <c r="G165" s="114" t="n">
+      <c r="G165" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S169</f>
         <v>253376041.464</v>
       </c>
-      <c r="H165" s="114" t="n">
+      <c r="H165" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T169</f>
         <v>6443881033.044</v>
       </c>
-      <c r="I165" s="114" t="n">
+      <c r="I165" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U169</f>
         <v>15116396789.676</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="125"/>
-      <c r="B166" s="126"/>
-      <c r="C166" s="127" t="s">
+      <c r="A166" s="126"/>
+      <c r="B166" s="127"/>
+      <c r="C166" s="128" t="s">
         <v>348</v>
       </c>
-      <c r="D166" s="128" t="s">
+      <c r="D166" s="129" t="s">
         <v>349</v>
       </c>
-      <c r="E166" s="128"/>
-      <c r="F166" s="114" t="n">
+      <c r="E166" s="129"/>
+      <c r="F166" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R170</f>
         <v>21114908724</v>
       </c>
-      <c r="G166" s="114" t="n">
+      <c r="G166" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S170</f>
         <v>5381484.108</v>
       </c>
-      <c r="H166" s="114" t="n">
+      <c r="H166" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T170</f>
         <v>21349147172.808</v>
       </c>
-      <c r="I166" s="114" t="n">
+      <c r="I166" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U170</f>
         <v>42469437380.916</v>
       </c>
     </row>
     <row r="167" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="120" t="s">
+      <c r="A167" s="121" t="s">
         <v>350</v>
       </c>
-      <c r="B167" s="121" t="s">
+      <c r="B167" s="122" t="s">
         <v>351</v>
       </c>
-      <c r="C167" s="122"/>
-      <c r="D167" s="129"/>
-      <c r="E167" s="129"/>
-      <c r="F167" s="119" t="n">
+      <c r="C167" s="123"/>
+      <c r="D167" s="130"/>
+      <c r="E167" s="130"/>
+      <c r="F167" s="120" t="n">
         <f aca="false">SUM(F168:F171)</f>
         <v>36876168036708</v>
       </c>
-      <c r="G167" s="119" t="n">
+      <c r="G167" s="120" t="n">
         <f aca="false">SUM(G168:G171)</f>
         <v>1995745689.756</v>
       </c>
-      <c r="H167" s="119" t="n">
+      <c r="H167" s="120" t="n">
         <f aca="false">SUM(H168:H171)</f>
         <v>5591589397758</v>
       </c>
-      <c r="I167" s="119" t="n">
+      <c r="I167" s="120" t="n">
         <f aca="false">SUM(I168:I171)</f>
         <v>42469753180155.8</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="120"/>
-      <c r="B168" s="130"/>
-      <c r="C168" s="131" t="s">
+      <c r="A168" s="121"/>
+      <c r="B168" s="131"/>
+      <c r="C168" s="132" t="s">
         <v>352</v>
       </c>
       <c r="D168" s="89" t="s">
         <v>353</v>
       </c>
       <c r="E168" s="89"/>
-      <c r="F168" s="114" t="n">
+      <c r="F168" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R172</f>
         <v>36729447928992</v>
       </c>
-      <c r="G168" s="114" t="n">
+      <c r="G168" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S172</f>
         <v>1992895634.184</v>
       </c>
-      <c r="H168" s="114" t="n">
+      <c r="H168" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T172</f>
         <v>393467243291.304</v>
       </c>
-      <c r="I168" s="114" t="n">
+      <c r="I168" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U172</f>
         <v>37124908067917.5</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="120"/>
-      <c r="B169" s="130"/>
-      <c r="C169" s="131" t="n">
+      <c r="A169" s="121"/>
+      <c r="B169" s="131"/>
+      <c r="C169" s="132" t="n">
         <v>3602</v>
       </c>
       <c r="D169" s="89" t="s">
         <v>355</v>
       </c>
       <c r="E169" s="89"/>
-      <c r="F169" s="114" t="n">
+      <c r="F169" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R173</f>
         <v>124194875532</v>
       </c>
-      <c r="G169" s="114" t="n">
+      <c r="G169" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S173</f>
         <v>0</v>
       </c>
-      <c r="H169" s="114" t="n">
+      <c r="H169" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T173</f>
         <v>5144068154466.7</v>
       </c>
-      <c r="I169" s="114" t="n">
+      <c r="I169" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U173</f>
         <v>5268263029998.7</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="120"/>
-      <c r="B170" s="130"/>
-      <c r="C170" s="131" t="s">
+      <c r="A170" s="121"/>
+      <c r="B170" s="131"/>
+      <c r="C170" s="132" t="s">
         <v>356</v>
       </c>
       <c r="D170" s="89" t="s">
         <v>357</v>
       </c>
       <c r="E170" s="89"/>
-      <c r="F170" s="114" t="n">
+      <c r="F170" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R174</f>
         <v>9111181716</v>
       </c>
-      <c r="G170" s="114" t="n">
+      <c r="G170" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S174</f>
         <v>0</v>
       </c>
-      <c r="H170" s="114" t="n">
+      <c r="H170" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T174</f>
         <v>36582000000</v>
       </c>
-      <c r="I170" s="114" t="n">
+      <c r="I170" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U174</f>
         <v>45693181716</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="120"/>
-      <c r="B171" s="121"/>
-      <c r="C171" s="122" t="s">
+      <c r="A171" s="121"/>
+      <c r="B171" s="122"/>
+      <c r="C171" s="123" t="s">
         <v>358</v>
       </c>
       <c r="D171" s="89" t="s">
         <v>516</v>
       </c>
       <c r="E171" s="89"/>
-      <c r="F171" s="114" t="n">
+      <c r="F171" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R175</f>
         <v>13414050468</v>
       </c>
-      <c r="G171" s="114" t="n">
+      <c r="G171" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S175</f>
         <v>2850055.572</v>
       </c>
-      <c r="H171" s="114" t="n">
+      <c r="H171" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T175</f>
         <v>17472000000</v>
       </c>
-      <c r="I171" s="114" t="n">
+      <c r="I171" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U175</f>
         <v>30888900523.572</v>
       </c>
     </row>
     <row r="172" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="115" t="s">
+      <c r="A172" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="B172" s="116" t="s">
+      <c r="B172" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="C172" s="123"/>
-      <c r="D172" s="124"/>
-      <c r="E172" s="124"/>
-      <c r="F172" s="119" t="n">
+      <c r="C172" s="124"/>
+      <c r="D172" s="125"/>
+      <c r="E172" s="125"/>
+      <c r="F172" s="120" t="n">
         <f aca="false">SUM(F173:F177)</f>
         <v>2858362346112</v>
       </c>
-      <c r="G172" s="119" t="n">
+      <c r="G172" s="120" t="n">
         <f aca="false">SUM(G173:G177)</f>
         <v>18080962332.888</v>
       </c>
-      <c r="H172" s="119" t="n">
+      <c r="H172" s="120" t="n">
         <f aca="false">SUM(H173:H177)</f>
         <v>507700158049.812</v>
       </c>
-      <c r="I172" s="119" t="n">
+      <c r="I172" s="120" t="n">
         <f aca="false">SUM(I173:I177)</f>
         <v>3384143466494.7</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="120"/>
-      <c r="B173" s="121"/>
-      <c r="C173" s="122" t="s">
+      <c r="A173" s="121"/>
+      <c r="B173" s="122"/>
+      <c r="C173" s="123" t="s">
         <v>362</v>
       </c>
       <c r="D173" s="89" t="s">
         <v>363</v>
       </c>
       <c r="E173" s="89"/>
-      <c r="F173" s="114" t="n">
+      <c r="F173" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R177</f>
         <v>710020693200</v>
       </c>
-      <c r="G173" s="114" t="n">
+      <c r="G173" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S177</f>
         <v>8811445919.64</v>
       </c>
-      <c r="H173" s="114" t="n">
+      <c r="H173" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T177</f>
         <v>388248923604.36</v>
       </c>
-      <c r="I173" s="114" t="n">
+      <c r="I173" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U177</f>
         <v>1107081062724</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="120"/>
-      <c r="B174" s="121"/>
-      <c r="C174" s="122" t="s">
+      <c r="A174" s="121"/>
+      <c r="B174" s="122"/>
+      <c r="C174" s="123" t="s">
         <v>364</v>
       </c>
       <c r="D174" s="89" t="s">
         <v>517</v>
       </c>
       <c r="E174" s="89"/>
-      <c r="F174" s="114" t="n">
+      <c r="F174" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R178</f>
         <v>5021452800</v>
       </c>
-      <c r="G174" s="114" t="n">
+      <c r="G174" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S178</f>
         <v>0</v>
       </c>
-      <c r="H174" s="114" t="n">
+      <c r="H174" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T178</f>
         <v>1012368445.452</v>
       </c>
-      <c r="I174" s="114" t="n">
+      <c r="I174" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U178</f>
         <v>6033821245.452</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="120"/>
-      <c r="B175" s="121"/>
-      <c r="C175" s="122" t="s">
+      <c r="A175" s="121"/>
+      <c r="B175" s="122"/>
+      <c r="C175" s="123" t="s">
         <v>366</v>
       </c>
       <c r="D175" s="89" t="s">
         <v>518</v>
       </c>
       <c r="E175" s="89"/>
-      <c r="F175" s="114" t="n">
+      <c r="F175" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R179</f>
         <v>3937861200</v>
       </c>
-      <c r="G175" s="114" t="n">
+      <c r="G175" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S179</f>
         <v>0</v>
       </c>
-      <c r="H175" s="114" t="n">
+      <c r="H175" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T179</f>
         <v>19656000000</v>
       </c>
-      <c r="I175" s="114" t="n">
+      <c r="I175" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U179</f>
         <v>23593861200</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="120"/>
-      <c r="B176" s="121"/>
-      <c r="C176" s="122" t="s">
+      <c r="A176" s="121"/>
+      <c r="B176" s="122"/>
+      <c r="C176" s="123" t="s">
         <v>368</v>
       </c>
       <c r="D176" s="89" t="s">
         <v>519</v>
       </c>
       <c r="E176" s="89"/>
-      <c r="F176" s="114" t="n">
+      <c r="F176" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R180</f>
         <v>2132625003600</v>
       </c>
-      <c r="G176" s="114" t="n">
+      <c r="G176" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S180</f>
         <v>9269516413.248</v>
       </c>
-      <c r="H176" s="114" t="n">
+      <c r="H176" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T180</f>
         <v>5460000000</v>
       </c>
-      <c r="I176" s="114" t="n">
+      <c r="I176" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U180</f>
         <v>2147354520013.25</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="125"/>
-      <c r="B177" s="126"/>
-      <c r="C177" s="127" t="s">
+      <c r="A177" s="126"/>
+      <c r="B177" s="127"/>
+      <c r="C177" s="128" t="s">
         <v>370</v>
       </c>
-      <c r="D177" s="128" t="s">
+      <c r="D177" s="129" t="s">
         <v>520</v>
       </c>
-      <c r="E177" s="128"/>
-      <c r="F177" s="114" t="n">
+      <c r="E177" s="129"/>
+      <c r="F177" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R181</f>
         <v>6757335312</v>
       </c>
-      <c r="G177" s="114" t="n">
+      <c r="G177" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S181</f>
         <v>0</v>
       </c>
-      <c r="H177" s="114" t="n">
+      <c r="H177" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T181</f>
         <v>93322866000</v>
       </c>
-      <c r="I177" s="114" t="n">
+      <c r="I177" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U181</f>
         <v>100080201312</v>
       </c>
     </row>
     <row r="178" s="104" customFormat="true" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="120" t="s">
+      <c r="A178" s="121" t="s">
         <v>376</v>
       </c>
-      <c r="B178" s="121" t="s">
+      <c r="B178" s="122" t="s">
         <v>521</v>
       </c>
-      <c r="C178" s="122"/>
-      <c r="D178" s="129"/>
-      <c r="E178" s="129"/>
-      <c r="F178" s="119" t="n">
+      <c r="C178" s="123"/>
+      <c r="D178" s="130"/>
+      <c r="E178" s="130"/>
+      <c r="F178" s="120" t="n">
         <f aca="false">SUM(F179)</f>
         <v>29729696724</v>
       </c>
-      <c r="G178" s="119" t="n">
+      <c r="G178" s="120" t="n">
         <f aca="false">SUM(G179)</f>
         <v>135733434.564</v>
       </c>
-      <c r="H178" s="119" t="n">
+      <c r="H178" s="120" t="n">
         <f aca="false">SUM(H179)</f>
         <v>499711528619.94</v>
       </c>
-      <c r="I178" s="119" t="n">
+      <c r="I178" s="120" t="n">
         <f aca="false">SUM(I179)</f>
         <v>529576958778.504</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="120"/>
-      <c r="B179" s="121"/>
-      <c r="C179" s="122" t="s">
+      <c r="A179" s="121"/>
+      <c r="B179" s="122"/>
+      <c r="C179" s="123" t="s">
         <v>378</v>
       </c>
       <c r="D179" s="89" t="s">
         <v>522</v>
       </c>
       <c r="E179" s="89"/>
-      <c r="F179" s="114" t="n">
+      <c r="F179" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R185</f>
         <v>29729696724</v>
       </c>
-      <c r="G179" s="114" t="n">
+      <c r="G179" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S185</f>
         <v>135733434.564</v>
       </c>
-      <c r="H179" s="114" t="n">
+      <c r="H179" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T185</f>
         <v>499711528619.94</v>
       </c>
-      <c r="I179" s="114" t="n">
+      <c r="I179" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U185</f>
         <v>529576958778.504</v>
       </c>
     </row>
     <row r="180" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="115" t="s">
+      <c r="A180" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="B180" s="116" t="s">
+      <c r="B180" s="117" t="s">
         <v>523</v>
       </c>
-      <c r="C180" s="123"/>
-      <c r="D180" s="124"/>
-      <c r="E180" s="124"/>
-      <c r="F180" s="119" t="n">
+      <c r="C180" s="124"/>
+      <c r="D180" s="125"/>
+      <c r="E180" s="125"/>
+      <c r="F180" s="120" t="n">
         <f aca="false">SUM(F181:F182)</f>
         <v>3212625589515.89</v>
       </c>
-      <c r="G180" s="119" t="n">
+      <c r="G180" s="120" t="n">
         <f aca="false">SUM(G181:G182)</f>
         <v>2230611893.328</v>
       </c>
-      <c r="H180" s="119" t="n">
+      <c r="H180" s="120" t="n">
         <f aca="false">SUM(H181:H182)</f>
         <v>5447349450746.11</v>
       </c>
-      <c r="I180" s="119" t="n">
+      <c r="I180" s="120" t="n">
         <f aca="false">SUM(I181:I182)</f>
         <v>8662205652155.33</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="120"/>
-      <c r="B181" s="121"/>
-      <c r="C181" s="122" t="n">
+      <c r="A181" s="121"/>
+      <c r="B181" s="122"/>
+      <c r="C181" s="123" t="n">
         <v>4001</v>
       </c>
       <c r="D181" s="89" t="s">
         <v>383</v>
       </c>
       <c r="E181" s="89"/>
-      <c r="F181" s="114" t="n">
+      <c r="F181" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R187</f>
         <v>3203877019805.28</v>
       </c>
-      <c r="G181" s="114" t="n">
+      <c r="G181" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S187</f>
         <v>1590600369.54</v>
       </c>
-      <c r="H181" s="114" t="n">
+      <c r="H181" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T187</f>
         <v>1266865367712.67</v>
       </c>
-      <c r="I181" s="114" t="n">
+      <c r="I181" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U187</f>
         <v>4472332987887.49</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="120"/>
-      <c r="B182" s="121"/>
-      <c r="C182" s="122" t="s">
+      <c r="A182" s="121"/>
+      <c r="B182" s="122"/>
+      <c r="C182" s="123" t="s">
         <v>384</v>
       </c>
       <c r="D182" s="89" t="s">
         <v>385</v>
       </c>
       <c r="E182" s="89"/>
-      <c r="F182" s="114" t="n">
+      <c r="F182" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R188</f>
         <v>8748569710.608</v>
       </c>
-      <c r="G182" s="114" t="n">
+      <c r="G182" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S188</f>
         <v>640011523.788</v>
       </c>
-      <c r="H182" s="114" t="n">
+      <c r="H182" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T188</f>
         <v>4180484083033.44</v>
       </c>
-      <c r="I182" s="114" t="n">
+      <c r="I182" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U188</f>
         <v>4189872664267.84</v>
       </c>
     </row>
     <row r="183" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="115" t="s">
+      <c r="A183" s="116" t="s">
         <v>386</v>
       </c>
-      <c r="B183" s="116" t="s">
+      <c r="B183" s="117" t="s">
         <v>524</v>
       </c>
-      <c r="C183" s="123"/>
-      <c r="D183" s="124"/>
-      <c r="E183" s="124"/>
-      <c r="F183" s="119" t="n">
+      <c r="C183" s="124"/>
+      <c r="D183" s="125"/>
+      <c r="E183" s="125"/>
+      <c r="F183" s="120" t="n">
         <f aca="false">SUM(F184:F186)</f>
         <v>1384712407676.05</v>
       </c>
-      <c r="G183" s="119" t="n">
+      <c r="G183" s="120" t="n">
         <f aca="false">SUM(G184:G186)</f>
         <v>4084853678.724</v>
       </c>
-      <c r="H183" s="119" t="n">
+      <c r="H183" s="120" t="n">
         <f aca="false">SUM(H184:H186)</f>
         <v>8957697092871.07</v>
       </c>
-      <c r="I183" s="119" t="n">
+      <c r="I183" s="120" t="n">
         <f aca="false">SUM(I184:I186)</f>
         <v>10346494354225.8</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="120"/>
-      <c r="B184" s="121"/>
-      <c r="C184" s="122" t="s">
+      <c r="A184" s="121"/>
+      <c r="B184" s="122"/>
+      <c r="C184" s="123" t="s">
         <v>388</v>
       </c>
       <c r="D184" s="89" t="s">
         <v>389</v>
       </c>
       <c r="E184" s="89"/>
-      <c r="F184" s="114" t="n">
+      <c r="F184" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R190</f>
         <v>231954417473.688</v>
       </c>
-      <c r="G184" s="114" t="n">
+      <c r="G184" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S190</f>
         <v>4074404886.552</v>
       </c>
-      <c r="H184" s="114" t="n">
+      <c r="H184" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T190</f>
         <v>7063471190984.21</v>
       </c>
-      <c r="I184" s="114" t="n">
+      <c r="I184" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U190</f>
         <v>7299500013344.45</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="120"/>
-      <c r="B185" s="121"/>
-      <c r="C185" s="122" t="s">
+      <c r="A185" s="121"/>
+      <c r="B185" s="122"/>
+      <c r="C185" s="123" t="s">
         <v>390</v>
       </c>
       <c r="D185" s="89" t="s">
         <v>525</v>
       </c>
       <c r="E185" s="89"/>
-      <c r="F185" s="114" t="n">
+      <c r="F185" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R191</f>
         <v>1137338748000</v>
       </c>
-      <c r="G185" s="114" t="n">
+      <c r="G185" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S191</f>
         <v>0</v>
       </c>
-      <c r="H185" s="114" t="n">
+      <c r="H185" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T191</f>
         <v>1856590367535.54</v>
       </c>
-      <c r="I185" s="114" t="n">
+      <c r="I185" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U191</f>
         <v>2993929115535.54</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="125"/>
-      <c r="B186" s="126"/>
-      <c r="C186" s="127" t="s">
+      <c r="A186" s="126"/>
+      <c r="B186" s="127"/>
+      <c r="C186" s="128" t="s">
         <v>392</v>
       </c>
-      <c r="D186" s="128" t="s">
+      <c r="D186" s="129" t="s">
         <v>393</v>
       </c>
-      <c r="E186" s="128"/>
-      <c r="F186" s="114" t="n">
+      <c r="E186" s="129"/>
+      <c r="F186" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R192</f>
         <v>15419242202.364</v>
       </c>
-      <c r="G186" s="114" t="n">
+      <c r="G186" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S192</f>
         <v>10448792.172</v>
       </c>
-      <c r="H186" s="114" t="n">
+      <c r="H186" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T192</f>
         <v>37635534351.324</v>
       </c>
-      <c r="I186" s="114" t="n">
+      <c r="I186" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U192</f>
         <v>53065225345.86</v>
       </c>
     </row>
     <row r="187" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="120" t="s">
+      <c r="A187" s="121" t="s">
         <v>396</v>
       </c>
-      <c r="B187" s="121" t="s">
+      <c r="B187" s="122" t="s">
         <v>526</v>
       </c>
-      <c r="C187" s="122"/>
-      <c r="D187" s="129"/>
-      <c r="E187" s="129"/>
-      <c r="F187" s="119" t="n">
+      <c r="C187" s="123"/>
+      <c r="D187" s="130"/>
+      <c r="E187" s="130"/>
+      <c r="F187" s="120" t="n">
         <f aca="false">SUM(F188)</f>
         <v>125355048000</v>
       </c>
-      <c r="G187" s="119" t="n">
+      <c r="G187" s="120" t="n">
         <f aca="false">SUM(G188)</f>
         <v>38878067.592</v>
       </c>
-      <c r="H187" s="119" t="n">
+      <c r="H187" s="120" t="n">
         <f aca="false">SUM(H188)</f>
         <v>31668000000</v>
       </c>
-      <c r="I187" s="119" t="n">
+      <c r="I187" s="120" t="n">
         <f aca="false">SUM(I188)</f>
         <v>157061926067.592</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="125"/>
-      <c r="B188" s="126"/>
-      <c r="C188" s="127" t="s">
+      <c r="A188" s="126"/>
+      <c r="B188" s="127"/>
+      <c r="C188" s="128" t="s">
         <v>398</v>
       </c>
-      <c r="D188" s="128" t="s">
+      <c r="D188" s="129" t="s">
         <v>399</v>
       </c>
-      <c r="E188" s="128"/>
-      <c r="F188" s="114" t="n">
+      <c r="E188" s="129"/>
+      <c r="F188" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R195</f>
         <v>125355048000</v>
       </c>
-      <c r="G188" s="114" t="n">
+      <c r="G188" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S195</f>
         <v>38878067.592</v>
       </c>
-      <c r="H188" s="114" t="n">
+      <c r="H188" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T195</f>
         <v>31668000000</v>
       </c>
-      <c r="I188" s="114" t="n">
+      <c r="I188" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U195</f>
         <v>157061926067.592</v>
       </c>
     </row>
     <row r="189" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="115" t="s">
+      <c r="A189" s="116" t="s">
         <v>400</v>
       </c>
-      <c r="B189" s="116" t="s">
+      <c r="B189" s="117" t="s">
         <v>527</v>
       </c>
-      <c r="C189" s="123"/>
-      <c r="D189" s="124"/>
-      <c r="E189" s="124"/>
-      <c r="F189" s="119" t="n">
+      <c r="C189" s="124"/>
+      <c r="D189" s="125"/>
+      <c r="E189" s="125"/>
+      <c r="F189" s="120" t="n">
         <f aca="false">SUM(F190)</f>
         <v>59752867960.968</v>
       </c>
-      <c r="G189" s="119" t="n">
+      <c r="G189" s="120" t="n">
         <f aca="false">SUM(G190)</f>
         <v>366781219.896</v>
       </c>
-      <c r="H189" s="119" t="n">
+      <c r="H189" s="120" t="n">
         <f aca="false">SUM(H190)</f>
         <v>973746366709.116</v>
       </c>
-      <c r="I189" s="119" t="n">
+      <c r="I189" s="120" t="n">
         <f aca="false">SUM(I190)</f>
         <v>1033866015889.98</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="120"/>
-      <c r="B190" s="130"/>
-      <c r="C190" s="131" t="s">
+      <c r="A190" s="121"/>
+      <c r="B190" s="131"/>
+      <c r="C190" s="132" t="s">
         <v>402</v>
       </c>
       <c r="D190" s="89" t="s">
         <v>403</v>
       </c>
       <c r="E190" s="89"/>
-      <c r="F190" s="114" t="n">
+      <c r="F190" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R197</f>
         <v>59752867960.968</v>
       </c>
-      <c r="G190" s="114" t="n">
+      <c r="G190" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S197</f>
         <v>366781219.896</v>
       </c>
-      <c r="H190" s="114" t="n">
+      <c r="H190" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T197</f>
         <v>973746366709.116</v>
       </c>
-      <c r="I190" s="114" t="n">
+      <c r="I190" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U197</f>
         <v>1033866015889.98</v>
       </c>
     </row>
     <row r="191" s="104" customFormat="true" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="115" t="s">
+      <c r="A191" s="116" t="s">
         <v>404</v>
       </c>
-      <c r="B191" s="116" t="s">
+      <c r="B191" s="117" t="s">
         <v>528</v>
       </c>
-      <c r="C191" s="123"/>
-      <c r="D191" s="124"/>
-      <c r="E191" s="124"/>
-      <c r="F191" s="132" t="n">
+      <c r="C191" s="124"/>
+      <c r="D191" s="125"/>
+      <c r="E191" s="125"/>
+      <c r="F191" s="133" t="n">
         <f aca="false">SUM(F192:F193)+F200</f>
         <v>526577627462.796</v>
       </c>
-      <c r="G191" s="132" t="n">
+      <c r="G191" s="133" t="n">
         <f aca="false">SUM(G192:G193)+G200</f>
         <v>0</v>
       </c>
-      <c r="H191" s="132" t="n">
+      <c r="H191" s="133" t="n">
         <f aca="false">SUM(H192:H193)+H200</f>
         <v>271977677026.692</v>
       </c>
-      <c r="I191" s="132" t="n">
+      <c r="I191" s="133" t="n">
         <f aca="false">SUM(I192:I193)+I200</f>
         <v>798555304489.488</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="120"/>
-      <c r="B192" s="130"/>
-      <c r="C192" s="131" t="s">
+      <c r="A192" s="121"/>
+      <c r="B192" s="131"/>
+      <c r="C192" s="132" t="s">
         <v>406</v>
       </c>
       <c r="D192" s="89" t="s">
         <v>407</v>
       </c>
       <c r="E192" s="89"/>
-      <c r="F192" s="114" t="n">
+      <c r="F192" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R199</f>
         <v>426474642662.796</v>
       </c>
-      <c r="G192" s="114" t="n">
+      <c r="G192" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S199</f>
         <v>0</v>
       </c>
-      <c r="H192" s="114" t="n">
+      <c r="H192" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T199</f>
         <v>194012659347.78</v>
       </c>
-      <c r="I192" s="114" t="n">
+      <c r="I192" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U199</f>
         <v>620487302010.576</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="120"/>
-      <c r="B193" s="121"/>
-      <c r="C193" s="122" t="s">
+      <c r="A193" s="121"/>
+      <c r="B193" s="122"/>
+      <c r="C193" s="123" t="s">
         <v>410</v>
       </c>
       <c r="D193" s="89" t="s">
         <v>529</v>
       </c>
       <c r="E193" s="89"/>
-      <c r="F193" s="114" t="n">
+      <c r="F193" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R201</f>
         <v>97918984800</v>
       </c>
-      <c r="G193" s="114" t="n">
+      <c r="G193" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S201</f>
         <v>0</v>
       </c>
-      <c r="H193" s="114" t="n">
+      <c r="H193" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T201</f>
         <v>77965017678.912</v>
       </c>
-      <c r="I193" s="114" t="n">
+      <c r="I193" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U201</f>
         <v>175884002478.912</v>
       </c>
     </row>
     <row r="194" s="104" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="115" t="n">
+      <c r="A194" s="116" t="n">
         <v>46</v>
       </c>
-      <c r="B194" s="116" t="s">
+      <c r="B194" s="117" t="s">
         <v>530</v>
       </c>
-      <c r="C194" s="123"/>
-      <c r="D194" s="116"/>
-      <c r="E194" s="116"/>
-      <c r="F194" s="119" t="n">
+      <c r="C194" s="124"/>
+      <c r="D194" s="117"/>
+      <c r="E194" s="117"/>
+      <c r="F194" s="120" t="n">
         <f aca="false">SUM(F195:F198)</f>
         <v>887492562572.616</v>
       </c>
-      <c r="G194" s="119" t="n">
+      <c r="G194" s="120" t="n">
         <f aca="false">SUM(G195:G198)</f>
         <v>7525965711.264</v>
       </c>
-      <c r="H194" s="119" t="n">
+      <c r="H194" s="120" t="n">
         <f aca="false">SUM(H195:H198)</f>
         <v>9043325121508.86</v>
       </c>
-      <c r="I194" s="119" t="n">
+      <c r="I194" s="120" t="n">
         <f aca="false">SUM(I195:I198)</f>
         <v>9938343649792.74</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="120"/>
-      <c r="B195" s="121"/>
-      <c r="C195" s="122" t="s">
+      <c r="A195" s="121"/>
+      <c r="B195" s="122"/>
+      <c r="C195" s="123" t="s">
         <v>531</v>
       </c>
-      <c r="D195" s="133" t="s">
+      <c r="D195" s="134" t="s">
         <v>532</v>
       </c>
-      <c r="E195" s="133"/>
-      <c r="F195" s="114"/>
-      <c r="G195" s="114"/>
-      <c r="H195" s="114"/>
-      <c r="I195" s="114"/>
+      <c r="E195" s="134"/>
+      <c r="F195" s="115"/>
+      <c r="G195" s="115"/>
+      <c r="H195" s="115"/>
+      <c r="I195" s="115"/>
     </row>
     <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="120"/>
-      <c r="B196" s="121"/>
-      <c r="C196" s="134" t="s">
+      <c r="A196" s="121"/>
+      <c r="B196" s="122"/>
+      <c r="C196" s="135" t="s">
         <v>394</v>
       </c>
-      <c r="D196" s="133" t="s">
+      <c r="D196" s="134" t="s">
         <v>395</v>
       </c>
-      <c r="E196" s="133"/>
-      <c r="F196" s="114" t="n">
+      <c r="E196" s="134"/>
+      <c r="F196" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R193</f>
         <v>873453770280</v>
       </c>
-      <c r="G196" s="114" t="n">
+      <c r="G196" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S193</f>
         <v>7522102142.1</v>
       </c>
-      <c r="H196" s="114" t="n">
+      <c r="H196" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T193</f>
         <v>9032668754380.91</v>
       </c>
-      <c r="I196" s="114" t="n">
+      <c r="I196" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U193</f>
         <v>9913644626803.01</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="120"/>
-      <c r="B197" s="121"/>
-      <c r="C197" s="134" t="s">
+      <c r="A197" s="121"/>
+      <c r="B197" s="122"/>
+      <c r="C197" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="D197" s="133" t="s">
+      <c r="D197" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="E197" s="133"/>
-      <c r="F197" s="114" t="n">
+      <c r="E197" s="134"/>
+      <c r="F197" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R82</f>
         <v>7190585603.292</v>
       </c>
-      <c r="G197" s="114" t="n">
+      <c r="G197" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S82</f>
         <v>0</v>
       </c>
-      <c r="H197" s="114" t="n">
+      <c r="H197" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T82</f>
         <v>8231335294.728</v>
       </c>
-      <c r="I197" s="114" t="n">
+      <c r="I197" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U82</f>
         <v>15421920898.02</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="125"/>
-      <c r="B198" s="126"/>
-      <c r="C198" s="135" t="s">
+      <c r="A198" s="126"/>
+      <c r="B198" s="127"/>
+      <c r="C198" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="D198" s="136" t="s">
+      <c r="D198" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="E198" s="136"/>
-      <c r="F198" s="114" t="n">
+      <c r="E198" s="137"/>
+      <c r="F198" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!R83</f>
         <v>6848206689.324</v>
       </c>
-      <c r="G198" s="114" t="n">
+      <c r="G198" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!S83</f>
         <v>3863569.164</v>
       </c>
-      <c r="H198" s="114" t="n">
+      <c r="H198" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!T83</f>
         <v>2425031833.224</v>
       </c>
-      <c r="I198" s="114" t="n">
+      <c r="I198" s="115" t="n">
         <f aca="false">'PGN 2023 C2023'!U83</f>
         <v>9277102091.712</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="137" t="n">
+    <row r="199" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="138" t="n">
         <v>44</v>
       </c>
-      <c r="B200" s="138" t="s">
+      <c r="B199" s="139" t="s">
         <v>405</v>
       </c>
-      <c r="C200" s="139" t="n">
+      <c r="E199" s="107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="108"/>
+      <c r="B200" s="108"/>
+      <c r="C200" s="140" t="n">
         <v>4402</v>
       </c>
-      <c r="D200" s="138" t="str">
+      <c r="D200" s="139" t="str">
         <f aca="false">'PGN 2023 C2023'!D200</f>
         <v>COMISION PARA EL ESCLARECIMIENTO DE LA VERDAD, LA CONVIVENCIA Y LA NO REPETICION</v>
       </c>
-      <c r="E200" s="138" t="n">
+      <c r="E200" s="139" t="n">
         <v>1</v>
       </c>
-      <c r="F200" s="140" t="n">
+      <c r="F200" s="141" t="n">
         <f aca="false">'PGN 2023 C2023'!R200</f>
         <v>2184000000</v>
       </c>
-      <c r="G200" s="140" t="n">
+      <c r="G200" s="141" t="n">
         <f aca="false">'PGN 2023 C2023'!S200</f>
         <v>0</v>
       </c>
-      <c r="H200" s="140" t="n">
+      <c r="H200" s="141" t="n">
         <f aca="false">'PGN 2023 C2023'!T200</f>
         <v>0</v>
       </c>
-      <c r="I200" s="140" t="n">
+      <c r="I200" s="141" t="n">
         <f aca="false">'PGN 2023 C2023'!U200</f>
         <v>2184000000</v>
       </c>
